--- a/最終課題_進捗質問まとめ.xlsx
+++ b/最終課題_進捗質問まとめ.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kya-y\侍エンジニア\Java\課題提出\なごや飯\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4F029D-BD6C-4C2C-9C77-D782613136E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7313639E-DE58-4B54-A78D-5096BEF908EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2130" yWindow="10690" windowWidth="22780" windowHeight="14540" xr2:uid="{93C132C4-8D5F-4937-9A63-A8CEF0BAF9E1}"/>
+    <workbookView xWindow="-620" yWindow="12120" windowWidth="18750" windowHeight="15590" xr2:uid="{93C132C4-8D5F-4937-9A63-A8CEF0BAF9E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="機能" sheetId="2" r:id="rId1"/>
+    <sheet name="Top" sheetId="2" r:id="rId1"/>
     <sheet name="参考資料1" sheetId="8" r:id="rId2"/>
     <sheet name="参考資料2" sheetId="9" r:id="rId3"/>
     <sheet name="作業用シート→" sheetId="7" r:id="rId4"/>
@@ -24,11 +24,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">機能!$A$1:$K$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">機能!$1:$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Top!$A$1:$K$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Top!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5113,9 +5112,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="181" formatCode="\'@\'"/>
-    <numFmt numFmtId="183" formatCode="\'h:mm\'"/>
-    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="\'@\'"/>
+    <numFmt numFmtId="177" formatCode="\'h:mm\'"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -5612,7 +5611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5655,43 +5654,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5712,44 +5693,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5757,16 +5708,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5802,9 +5747,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5812,6 +5754,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6357,6 +6338,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7960296D-2CC1-4A61-9582-F198E0AEA7C8}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6366,7 +6350,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
@@ -6380,13 +6364,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
@@ -6396,24 +6380,24 @@
       <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="24" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="38.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -6433,11 +6417,11 @@
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="25.5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="51">
+      <c r="A3" s="27"/>
+      <c r="B3" s="34">
         <v>2</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
@@ -6455,11 +6439,11 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="25.5">
-      <c r="A4" s="33"/>
-      <c r="B4" s="51">
+      <c r="A4" s="27"/>
+      <c r="B4" s="34">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
@@ -6477,11 +6461,11 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="48">
-      <c r="A5" s="33"/>
-      <c r="B5" s="51">
+      <c r="A5" s="27"/>
+      <c r="B5" s="34">
         <v>4</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="55" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -6503,11 +6487,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="108.75">
-      <c r="A6" s="33"/>
-      <c r="B6" s="51">
+      <c r="A6" s="27"/>
+      <c r="B6" s="34">
         <v>5</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
@@ -6519,22 +6503,22 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="25" t="s">
         <v>554</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="26" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="51">
+      <c r="A7" s="27"/>
+      <c r="B7" s="34">
         <v>6</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="3" t="s">
         <v>47</v>
       </c>
@@ -6550,11 +6534,11 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="38.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="51">
+      <c r="A8" s="27"/>
+      <c r="B8" s="34">
         <v>7</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="3" t="s">
         <v>49</v>
       </c>
@@ -6570,11 +6554,11 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="25.5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="51">
+      <c r="A9" s="27"/>
+      <c r="B9" s="34">
         <v>8</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="52" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -6594,11 +6578,11 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="38.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="51">
+      <c r="A10" s="27"/>
+      <c r="B10" s="34">
         <v>9</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
@@ -6616,15 +6600,15 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="38.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="51">
+      <c r="A11" s="27"/>
+      <c r="B11" s="34">
         <v>10</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -6638,15 +6622,15 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="63.75">
-      <c r="A12" s="33"/>
-      <c r="B12" s="51">
+      <c r="A12" s="27"/>
+      <c r="B12" s="34">
         <v>11</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -6660,15 +6644,15 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="25.5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="51">
+      <c r="A13" s="27"/>
+      <c r="B13" s="34">
         <v>12</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="23" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -6682,11 +6666,11 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="51">
-      <c r="A14" s="33"/>
-      <c r="B14" s="51">
+      <c r="A14" s="27"/>
+      <c r="B14" s="34">
         <v>13</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="52" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -6706,11 +6690,11 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="33"/>
-      <c r="B15" s="51">
+      <c r="A15" s="27"/>
+      <c r="B15" s="34">
         <v>14</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="3" t="s">
         <v>65</v>
       </c>
@@ -6728,11 +6712,11 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="33"/>
-      <c r="B16" s="51">
+      <c r="A16" s="27"/>
+      <c r="B16" s="34">
         <v>15</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="3" t="s">
         <v>67</v>
       </c>
@@ -6750,11 +6734,11 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="38.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="51">
+      <c r="A17" s="27"/>
+      <c r="B17" s="34">
         <v>16</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="32" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -6772,11 +6756,11 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="25.5">
-      <c r="A18" s="33"/>
-      <c r="B18" s="51">
+      <c r="A18" s="27"/>
+      <c r="B18" s="34">
         <v>17</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="52" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -6794,11 +6778,11 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="25.5">
-      <c r="A19" s="33"/>
-      <c r="B19" s="51">
+      <c r="A19" s="27"/>
+      <c r="B19" s="34">
         <v>18</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="3" t="s">
         <v>74</v>
       </c>
@@ -6814,11 +6798,11 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="25.5">
-      <c r="A20" s="33"/>
-      <c r="B20" s="51">
+      <c r="A20" s="27"/>
+      <c r="B20" s="34">
         <v>19</v>
       </c>
-      <c r="C20" s="42"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="3" t="s">
         <v>76</v>
       </c>
@@ -6834,11 +6818,11 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="25.5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="51">
+      <c r="A21" s="27"/>
+      <c r="B21" s="34">
         <v>20</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="3" t="s">
         <v>78</v>
       </c>
@@ -6856,11 +6840,11 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="25.5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="51">
+      <c r="A22" s="27"/>
+      <c r="B22" s="34">
         <v>21</v>
       </c>
-      <c r="C22" s="42"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="3" t="s">
         <v>80</v>
       </c>
@@ -6878,11 +6862,11 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="25.5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="51">
+      <c r="A23" s="27"/>
+      <c r="B23" s="34">
         <v>22</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="3" t="s">
         <v>82</v>
       </c>
@@ -6902,14 +6886,14 @@
       <c r="J23" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" ht="25.5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="51">
+      <c r="A24" s="27"/>
+      <c r="B24" s="34">
         <v>23</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="3" t="s">
         <v>84</v>
       </c>
@@ -6927,11 +6911,11 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="36">
-      <c r="A25" s="33"/>
-      <c r="B25" s="51">
+      <c r="A25" s="27"/>
+      <c r="B25" s="34">
         <v>24</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="52" t="s">
         <v>86</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -6953,11 +6937,11 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:11" ht="60">
-      <c r="A26" s="33"/>
-      <c r="B26" s="51">
+      <c r="A26" s="27"/>
+      <c r="B26" s="34">
         <v>25</v>
       </c>
-      <c r="C26" s="42"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="3" t="s">
         <v>89</v>
       </c>
@@ -6979,14 +6963,14 @@
       <c r="J26" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="K26" s="27"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:11" ht="60">
-      <c r="A27" s="33"/>
-      <c r="B27" s="51">
+      <c r="A27" s="27"/>
+      <c r="B27" s="34">
         <v>26</v>
       </c>
-      <c r="C27" s="42"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="3" t="s">
         <v>91</v>
       </c>
@@ -7006,14 +6990,14 @@
       <c r="J27" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="K27" s="27"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="51">
-      <c r="A28" s="33"/>
-      <c r="B28" s="51">
+      <c r="A28" s="27"/>
+      <c r="B28" s="34">
         <v>27</v>
       </c>
-      <c r="C28" s="43"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="3" t="s">
         <v>93</v>
       </c>
@@ -7033,57 +7017,57 @@
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="36">
-      <c r="A29" s="34"/>
-      <c r="B29" s="52">
+      <c r="A29" s="48"/>
+      <c r="B29" s="58">
         <v>28</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="K29" s="27"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="84">
-      <c r="A30" s="34"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="47" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="27"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11" ht="25.5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="51">
+      <c r="A31" s="27"/>
+      <c r="B31" s="34">
         <v>29</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="52" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -7103,11 +7087,11 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="25.5">
-      <c r="A32" s="33"/>
-      <c r="B32" s="51">
+      <c r="A32" s="27"/>
+      <c r="B32" s="34">
         <v>30</v>
       </c>
-      <c r="C32" s="42"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="3" t="s">
         <v>101</v>
       </c>
@@ -7125,11 +7109,11 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:11" ht="25.5">
-      <c r="A33" s="33"/>
-      <c r="B33" s="51">
+      <c r="A33" s="27"/>
+      <c r="B33" s="34">
         <v>31</v>
       </c>
-      <c r="C33" s="42"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="3" t="s">
         <v>103</v>
       </c>
@@ -7147,11 +7131,11 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:11" ht="25.5">
-      <c r="A34" s="33"/>
-      <c r="B34" s="51">
+      <c r="A34" s="27"/>
+      <c r="B34" s="34">
         <v>32</v>
       </c>
-      <c r="C34" s="42"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="3" t="s">
         <v>105</v>
       </c>
@@ -7169,11 +7153,11 @@
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:11" ht="25.5">
-      <c r="A35" s="33"/>
-      <c r="B35" s="51">
+      <c r="A35" s="27"/>
+      <c r="B35" s="34">
         <v>33</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="3" t="s">
         <v>107</v>
       </c>
@@ -7191,11 +7175,11 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:11" ht="25.5">
-      <c r="A36" s="33"/>
-      <c r="B36" s="51">
+      <c r="A36" s="27"/>
+      <c r="B36" s="34">
         <v>34</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="3" t="s">
         <v>109</v>
       </c>
@@ -7213,47 +7197,47 @@
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="52">
+      <c r="A37" s="48"/>
+      <c r="B37" s="58">
         <v>35</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="34"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A39" s="33"/>
-      <c r="B39" s="51">
+      <c r="A39" s="27"/>
+      <c r="B39" s="34">
         <v>36</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="3" t="s">
         <v>113</v>
       </c>
@@ -7271,13 +7255,13 @@
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:11" ht="25.5">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="B40" s="51">
+      <c r="B40" s="34">
         <v>1</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="52" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -7297,11 +7281,11 @@
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:11" ht="38.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="51">
+      <c r="A41" s="27"/>
+      <c r="B41" s="34">
         <v>2</v>
       </c>
-      <c r="C41" s="42"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="3" t="s">
         <v>54</v>
       </c>
@@ -7319,11 +7303,11 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="33"/>
-      <c r="B42" s="51">
+      <c r="A42" s="27"/>
+      <c r="B42" s="34">
         <v>3</v>
       </c>
-      <c r="C42" s="43"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="3" t="s">
         <v>67</v>
       </c>
@@ -7341,11 +7325,11 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="33"/>
-      <c r="B43" s="51">
+      <c r="A43" s="27"/>
+      <c r="B43" s="34">
         <v>4</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="52" t="s">
         <v>121</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -7365,11 +7349,11 @@
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:11" ht="25.5">
-      <c r="A44" s="33"/>
-      <c r="B44" s="51">
+      <c r="A44" s="27"/>
+      <c r="B44" s="34">
         <v>5</v>
       </c>
-      <c r="C44" s="42"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="3" t="s">
         <v>89</v>
       </c>
@@ -7387,11 +7371,11 @@
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:11" ht="51">
-      <c r="A45" s="33"/>
-      <c r="B45" s="51">
+      <c r="A45" s="27"/>
+      <c r="B45" s="34">
         <v>6</v>
       </c>
-      <c r="C45" s="42"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="3" t="s">
         <v>93</v>
       </c>
@@ -7401,19 +7385,19 @@
       <c r="F45" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:11" ht="48">
-      <c r="A46" s="33"/>
-      <c r="B46" s="51">
+      <c r="A46" s="27"/>
+      <c r="B46" s="34">
         <v>7</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="3" t="s">
         <v>125</v>
       </c>
@@ -7423,24 +7407,24 @@
       <c r="F46" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25" t="s">
+      <c r="H46" s="20"/>
+      <c r="I46" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="J46" s="25" t="s">
+      <c r="J46" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="K46" s="27"/>
+      <c r="K46" s="21"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="33"/>
-      <c r="B47" s="51">
+      <c r="A47" s="27"/>
+      <c r="B47" s="34">
         <v>8</v>
       </c>
-      <c r="C47" s="42"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="3" t="s">
         <v>127</v>
       </c>
@@ -7450,47 +7434,47 @@
       <c r="F47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="27"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:11" ht="74.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="51">
+      <c r="A48" s="27"/>
+      <c r="B48" s="34">
         <v>9</v>
       </c>
-      <c r="C48" s="42"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E48" s="61" t="s">
+      <c r="E48" s="43" t="s">
         <v>616</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25" t="s">
+      <c r="H48" s="20"/>
+      <c r="I48" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="J48" s="25" t="s">
+      <c r="J48" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="K48" s="28"/>
+      <c r="K48" s="22"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="33"/>
-      <c r="B49" s="51">
+      <c r="A49" s="27"/>
+      <c r="B49" s="34">
         <v>10</v>
       </c>
-      <c r="C49" s="42"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="3" t="s">
         <v>130</v>
       </c>
@@ -7500,20 +7484,20 @@
       <c r="F49" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="28"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="22"/>
     </row>
     <row r="50" spans="1:11" ht="24">
-      <c r="A50" s="33"/>
-      <c r="B50" s="51">
+      <c r="A50" s="27"/>
+      <c r="B50" s="34">
         <v>11</v>
       </c>
-      <c r="C50" s="43"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="3" t="s">
         <v>132</v>
       </c>
@@ -7523,311 +7507,332 @@
       <c r="F50" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="33"/>
-      <c r="B51" s="51">
+      <c r="A51" s="27"/>
+      <c r="B51" s="34">
         <v>12</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="52" t="s">
         <v>134</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="3" t="s">
         <v>136</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="H51" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
     </row>
     <row r="52" spans="1:11" ht="25.5">
-      <c r="A52" s="33"/>
-      <c r="B52" s="51">
+      <c r="A52" s="27"/>
+      <c r="B52" s="34">
         <v>13</v>
       </c>
-      <c r="C52" s="42"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="3" t="s">
         <v>137</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:11" ht="38.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="51">
+      <c r="A53" s="27"/>
+      <c r="B53" s="34">
         <v>14</v>
       </c>
-      <c r="C53" s="43"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="33"/>
-      <c r="B54" s="51">
+      <c r="A54" s="27"/>
+      <c r="B54" s="34">
         <v>15</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="52" t="s">
         <v>140</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="3" t="s">
         <v>142</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:11" ht="36">
-      <c r="A55" s="33"/>
-      <c r="B55" s="51">
+      <c r="A55" s="27"/>
+      <c r="B55" s="34">
         <v>16</v>
       </c>
-      <c r="C55" s="42"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="3" t="s">
         <v>143</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25" t="s">
+      <c r="H55" s="20"/>
+      <c r="I55" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="J55" s="25" t="s">
+      <c r="J55" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="K55" s="28"/>
+      <c r="K55" s="22"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="33"/>
-      <c r="B56" s="51">
+      <c r="A56" s="27"/>
+      <c r="B56" s="34">
         <v>17</v>
       </c>
-      <c r="C56" s="42"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="33"/>
-      <c r="B57" s="51">
+      <c r="A57" s="27"/>
+      <c r="B57" s="34">
         <v>18</v>
       </c>
-      <c r="C57" s="42"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="3" t="s">
         <v>147</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G57" s="25" t="s">
+      <c r="G57" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="33"/>
-      <c r="B58" s="51">
+      <c r="A58" s="27"/>
+      <c r="B58" s="34">
         <v>19</v>
       </c>
-      <c r="C58" s="42"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G58" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="33"/>
-      <c r="B59" s="51">
+      <c r="A59" s="27"/>
+      <c r="B59" s="34">
         <v>20</v>
       </c>
-      <c r="C59" s="42"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="3" t="s">
         <v>151</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G59" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="33"/>
-      <c r="B60" s="35">
+      <c r="A60" s="27"/>
+      <c r="B60" s="28">
         <v>21</v>
       </c>
-      <c r="C60" s="42"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="63" t="s">
+      <c r="E60" s="4" t="s">
         <v>153</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G60" s="64" t="s">
+      <c r="G60" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="H60" s="64"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
     </row>
     <row r="61" spans="1:11" ht="36">
-      <c r="A61" s="36" t="s">
+      <c r="A61" t="s">
         <v>620</v>
       </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="62" t="s">
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="44" t="s">
         <v>617</v>
       </c>
-      <c r="J61" s="25" t="s">
+      <c r="J61" s="20" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="72">
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="62" t="s">
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="J62" s="25" t="s">
+      <c r="J62" s="20" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="36">
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="62" t="s">
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="44" t="s">
         <v>619</v>
       </c>
-      <c r="J63" s="25" t="s">
+      <c r="J63" s="20" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="38"/>
-      <c r="B64" s="27"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="38"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{7960296D-2CC1-4A61-9582-F198E0AEA7C8}">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="30">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E37:E38"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="H37:H38"/>
@@ -7835,29 +7840,8 @@
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="J37:J38"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F37:F38"/>
     <mergeCell ref="G37:G38"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C18:C24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7943,7 +7927,7 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="36" t="s">
         <v>574</v>
       </c>
     </row>
@@ -7963,142 +7947,142 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="37" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="38" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="39" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="37" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="39" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="40" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="38" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="38" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="37" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="37" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="41" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="37" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="37" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="37" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="37" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="37" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="37" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="37" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="37" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="38" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="38" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="37" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="37" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="37" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="40" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="40" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="40" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="40" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8108,7 +8092,7 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="60" t="s">
+      <c r="A61" s="42" t="s">
         <v>609</v>
       </c>
     </row>
@@ -9198,7 +9182,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EF3A9E-DD8E-45F1-A493-AA3222BAEABC}">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -9209,7 +9193,6 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="6" width="9" style="21"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
@@ -9227,10 +9210,10 @@
       <c r="D1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" t="s">
         <v>220</v>
       </c>
       <c r="G1" t="s">
@@ -9255,2842 +9238,2841 @@
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="18" customFormat="1">
-      <c r="A2" s="18">
+    <row r="2" spans="1:15" s="14" customFormat="1">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="15">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="15">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="14">
         <v>50</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="14">
         <v>1</v>
       </c>
-      <c r="O2" s="18" t="str">
+      <c r="O2" s="14" t="str">
         <f>"INSERT IGNORE INTO stores ("&amp;_xlfn.TEXTJOIN(", ",FALSE,$A$1:$L$1)&amp;") VALUES ("&amp;_xlfn.TEXTJOIN(", ",FALSE,A2:L2)&amp;");"</f>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (1, 味噌カツ亭, store01.jpg, 名古屋名物の味噌カツが絶品の老舗, 0.458333333333333, 0.916666666666667, 水曜日, 1000～2000円, 50, 460-0001, 愛知県名古屋市中村区名駅1-1-1, 052-123-4567);</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="18" customFormat="1">
-      <c r="A3" s="18">
+    <row r="3" spans="1:15" s="14" customFormat="1">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="15">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="16">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="14">
         <v>30</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="14">
         <v>2</v>
       </c>
-      <c r="O3" s="18" t="str">
+      <c r="O3" s="14" t="str">
         <f t="shared" ref="O3:O41" si="0">"INSERT IGNORE INTO stores ("&amp;_xlfn.TEXTJOIN(", ",FALSE,$A$1:$L$1)&amp;") VALUES ("&amp;_xlfn.TEXTJOIN(", ",FALSE,A3:L3)&amp;");"</f>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (2, 手羽先王, store02.jpg, パリッとジューシーな手羽先が自慢, 0.708333333333333, 10, 火曜日, 500～1500円, 30, 460-0011, 愛知県名古屋市中区栄3-2-1, 052-234-5678);</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="18" customFormat="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:15" s="14" customFormat="1">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="16">
         <v>0.875</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="14">
         <v>40</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="14">
         <v>3</v>
       </c>
-      <c r="O4" s="18" t="str">
+      <c r="O4" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (3, あんかけスパHOUSE, store03.jpg, 濃厚なあんかけスパが楽しめる専門店, 0.416666666666667, 0.875, なし, 800～1500円, 40, 460-0022, 愛知県名古屋市東区葵1-3-2, 052-345-6789);</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="18" customFormat="1">
-      <c r="A5" s="18">
+    <row r="5" spans="1:15" s="14" customFormat="1">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>0.85416666666666663</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="14">
         <v>60</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="14">
         <v>4</v>
       </c>
-      <c r="O5" s="18" t="str">
+      <c r="O5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (4, ひつまぶし屋, store04.jpg, 炭火で焼いたひつまぶしが人気の名店, 0.479166666666667, 0.854166666666667, 月曜日, 2000～3500円, 60, 460-0033, 愛知県名古屋市千種区今池2-4-3, 052-456-7890);</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="18" customFormat="1">
-      <c r="A6" s="18">
+    <row r="6" spans="1:15" s="14" customFormat="1">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="16">
         <v>0.5</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="16">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="14">
         <v>25</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="14">
         <v>5</v>
       </c>
-      <c r="O6" s="18" t="str">
+      <c r="O6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (5, どて煮横丁, store05.jpg, こだわりの味噌で煮込んだどて煮が味わえる, 0.5, 0.916666666666667, 木曜日, 600～1200円, 25, 460-0044, 愛知県名古屋市熱田区神宮1-5-4, 052-567-8901);</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="18" customFormat="1">
-      <c r="A7" s="18">
+    <row r="7" spans="1:15" s="14" customFormat="1">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <v>0.75</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="16">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="14">
         <v>35</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="14">
         <v>6</v>
       </c>
-      <c r="O7" s="18" t="str">
+      <c r="O7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (6, 台湾ラーメン亭, store06.jpg, ピリ辛でクセになる台湾ラーメン専門店, 0.75, 0.0833333333333333, 日曜日, 700～1000円, 35, 460-0055, 愛知県名古屋市北区清水1-6-5, 052-678-9012);</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="18" customFormat="1">
-      <c r="A8" s="18">
+    <row r="8" spans="1:15" s="14" customFormat="1">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="16">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="14">
         <v>20</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="14">
         <v>7</v>
       </c>
-      <c r="O8" s="18" t="str">
+      <c r="O8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (7, 天むす小路, store07.jpg, もちもちのおむすび天むすが名物, 0.333333333333333, 0.791666666666667, 火曜日, 500～800円, 20, 460-0066, 愛知県名古屋市昭和区広路町7-8-6, 052-789-0123);</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="18" customFormat="1">
-      <c r="A9" s="18">
+    <row r="9" spans="1:15" s="14" customFormat="1">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>0.4375</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="16">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="14">
         <v>40</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="14">
         <v>8</v>
       </c>
-      <c r="O9" s="18" t="str">
+      <c r="O9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (8, きしめんの里, store08.jpg, 名古屋伝統のきしめんを手軽に楽しめる, 0.4375, 0.833333333333333, 水曜日, 600～1000円, 40, 460-0077, 愛知県名古屋市西区大曽根3-9-7, 052-890-1234);</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="18" customFormat="1">
-      <c r="A10" s="18">
+    <row r="10" spans="1:15" s="14" customFormat="1">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>0.625</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="16">
         <v>0.95833333333333337</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="14">
         <v>30</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="14">
         <v>9</v>
       </c>
-      <c r="O10" s="18" t="str">
+      <c r="O10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (9, 味噌おでん楽市, store09.jpg, 地元産の味噌で作る濃厚おでん, 0.625, 0.958333333333333, 月曜日, 800～1500円, 30, 460-0088, 愛知県名古屋市瑞穂区妙音通4-10-9, 052-901-2345);</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="18" customFormat="1">
-      <c r="A11" s="18">
+    <row r="11" spans="1:15" s="14" customFormat="1">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="16">
         <v>0.875</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="14">
         <v>50</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="14">
         <v>10</v>
       </c>
-      <c r="O11" s="18" t="str">
+      <c r="O11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (10, エビフリャーパーク, store10.jpg, 名古屋名物エビフライが主役のカフェ風店, 0.458333333333333, 0.875, なし, 1200～2000円, 50, 460-0099, 愛知県名古屋市緑区鴻仏目2-8-10, 052-012-3456);</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="18" customFormat="1">
-      <c r="A12" s="18">
+    <row r="12" spans="1:15" s="14" customFormat="1">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <v>0.5</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="16">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="14">
         <v>15</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="14">
         <v>11</v>
       </c>
-      <c r="O12" s="18" t="str">
+      <c r="O12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (11, 大須たこ焼き本舗, store11.jpg, 外はカリカリ中はトロトロのたこ焼き専門店, 0.5, 0.916666666666667, 水曜日, 300～800円, 15, 460-8501, 愛知県名古屋市中区大須3-9-18, 052-123-6789);</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1">
-      <c r="A13" s="18">
+    <row r="13" spans="1:15" s="14" customFormat="1">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="16">
         <v>0.89583333333333337</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="14">
         <v>35</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="14">
         <v>12</v>
       </c>
-      <c r="O13" s="18" t="str">
+      <c r="O13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (12, 名古屋カレーうどん処, store12.jpg, スパイシーでコクのあるカレーうどんが評判, 0.458333333333333, 0.895833333333333, 火曜日, 800～1500円, 35, 460-8602, 愛知県名古屋市中村区黄金通5-12-3, 052-234-7890);</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="18" customFormat="1">
-      <c r="A14" s="18">
+    <row r="14" spans="1:15" s="14" customFormat="1">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="14">
         <v>25</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="14">
         <v>13</v>
       </c>
-      <c r="O14" s="18" t="str">
+      <c r="O14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (13, 八丁味噌バーガー, store13.jpg, 八丁味噌を使った個性派バーガーが人気, 0.416666666666667, 0.833333333333333, 木曜日, 500～1000円, 25, 460-8703, 愛知県名古屋市港区品川町1-15, 052-345-8901);</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="18" customFormat="1">
-      <c r="A15" s="18">
+    <row r="15" spans="1:15" s="14" customFormat="1">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="16">
         <v>0.375</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="16">
         <v>0.75</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="14">
         <v>20</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="14">
         <v>14</v>
       </c>
-      <c r="O15" s="18" t="str">
+      <c r="O15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (14, 焼きまんじゅう亭, store14.jpg, 香ばしく焼き上げた甘じょっぱいまんじゅうが絶品, 0.375, 0.75, 月曜日, 200～600円, 20, 460-8804, 愛知県名古屋市南区新田町2-4-6, 052-456-9012);</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="18" customFormat="1">
-      <c r="A16" s="18">
+    <row r="16" spans="1:15" s="14" customFormat="1">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="16">
         <v>0.97916666666666663</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="14">
         <v>30</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="14">
         <v>15</v>
       </c>
-      <c r="O16" s="18" t="str">
+      <c r="O16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (15, ホルモン串楽屋, store15.jpg, 味噌だれが絶妙なホルモン串の専門店, 0.708333333333333, 0.979166666666667, 日曜日, 500～1200円, 30, 460-8905, 愛知県名古屋市中川区八田町3-8-9, 052-567-0123);</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="18" customFormat="1">
-      <c r="A17" s="18">
+    <row r="17" spans="1:29" s="14" customFormat="1">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="16">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="16">
         <v>0.875</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="14">
         <v>35</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="14">
         <v>16</v>
       </c>
-      <c r="O17" s="18" t="str">
+      <c r="O17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (16, 甘辛焼きそば堂, store16.jpg, 甘辛いタレがクセになる焼きそばが看板メニュー, 0.479166666666667, 0.875, 水曜日, 700～1300円, 35, 460-9006, 愛知県名古屋市守山区森田町1-7-2, 052-678-1234);</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="18" customFormat="1">
-      <c r="A18" s="18">
+    <row r="18" spans="1:29" s="14" customFormat="1">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="16">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="14">
         <v>100</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="14">
         <v>17</v>
       </c>
-      <c r="O18" s="18" t="str">
+      <c r="O18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (17, ナゴヤソウルフード, store17.jpg, 地元で愛されるB級グルメが集まる複合施設, 0.416666666666667, 0.916666666666667, なし, 500～2000円, 100, 460-9107, 愛知県名古屋市名東区引山町2-9-8, 052-789-2345);</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="18" customFormat="1">
-      <c r="A19" s="18">
+    <row r="19" spans="1:29" s="14" customFormat="1">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="16">
         <v>0.75</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="14">
         <v>15</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="14">
         <v>18</v>
       </c>
-      <c r="O19" s="18" t="str">
+      <c r="O19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (18, えびせんの里屋台, store18.jpg, 名古屋名物えびせんべいを揚げたてで提供, 0.416666666666667, 0.75, 木曜日, 300～800円, 15, 460-9208, 愛知県名古屋市天白区植田町5-4-7, 052-890-3456);</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="18" customFormat="1">
-      <c r="A20" s="18">
+    <row r="20" spans="1:29" s="14" customFormat="1">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="16">
         <v>0.95833333333333337</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="14">
         <v>45</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="14">
         <v>19</v>
       </c>
-      <c r="O20" s="18" t="str">
+      <c r="O20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (19, ジャンボ串かつ天国, store19.jpg, 大ぶりでボリューム満点の串かつが自慢, 0.666666666666667, 0.958333333333333, 火曜日, 500～1500円, 45, 460-9309, 愛知県名古屋市中村区太閤通6-7-8, 052-901-4567);</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="18" customFormat="1">
-      <c r="A21" s="18">
+    <row r="21" spans="1:29" s="14" customFormat="1">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="16">
         <v>0.97916666666666663</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="14">
         <v>25</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="14">
         <v>20</v>
       </c>
-      <c r="O21" s="18" t="str">
+      <c r="O21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (20, 鶏ちゃん横町, store20.jpg, 香ばしく焼き上げた鶏ちゃんを提供する隠れ家的店, 0.708333333333333, 0.979166666666667, 水曜日, 800～2000円, 25, 460-9400, 愛知県名古屋市東区泉町3-2-1, 052-012-5678);</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="21" customFormat="1">
-      <c r="O22" s="21" t="str">
+    <row r="22" spans="1:29">
+      <c r="O22" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (, , , , , , , , , , , );</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" t="s">
         <v>429</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="T22" t="s">
         <v>365</v>
       </c>
-      <c r="W22" s="21" t="s">
+      <c r="W22" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="21" customFormat="1">
-      <c r="A23" s="21">
+    <row r="23" spans="1:29">
+      <c r="A23">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" t="str">
         <f>TEXT(B2,"'@'")</f>
         <v>'味噌カツ亭'</v>
       </c>
-      <c r="C23" s="21" t="str">
-        <f t="shared" ref="C23:H23" si="1">TEXT(C2,"'@'")</f>
+      <c r="C23" t="str">
+        <f t="shared" ref="C23:G23" si="1">TEXT(C2,"'@'")</f>
         <v>'store01.jpg'</v>
       </c>
-      <c r="D23" s="21" t="str">
+      <c r="D23" t="str">
         <f t="shared" si="1"/>
         <v>'名古屋名物の味噌カツが絶品の老舗'</v>
       </c>
-      <c r="E23" s="21" t="str">
+      <c r="E23" t="str">
         <f>TEXT(E2,"'H:MM'")</f>
         <v>'11:00'</v>
       </c>
-      <c r="F23" s="21" t="str">
+      <c r="F23" t="str">
         <f>TEXT(F2,"'H:MM'")</f>
         <v>'22:00'</v>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" t="str">
         <f t="shared" si="1"/>
         <v>'水曜日'</v>
       </c>
-      <c r="H23" s="21" t="str">
+      <c r="H23" t="str">
         <f>TEXT(H2,"'@'")</f>
         <v>'1000～2000円'</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23">
         <f>I2</f>
         <v>50</v>
       </c>
-      <c r="J23" s="21" t="str">
+      <c r="J23" t="str">
         <f>TEXT(J2,"'@'")</f>
         <v>'460-0001'</v>
       </c>
-      <c r="K23" s="21" t="str">
+      <c r="K23" t="str">
         <f t="shared" ref="K23:L23" si="2">TEXT(K2,"'@'")</f>
         <v>'愛知県名古屋市中村区名駅1-1-1'</v>
       </c>
-      <c r="L23" s="21" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="2"/>
         <v>'052-123-4567'</v>
       </c>
-      <c r="O23" s="21" t="str">
+      <c r="O23" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (1, '味噌カツ亭', 'store01.jpg', '名古屋名物の味噌カツが絶品の老舗', '11:00', '22:00', '水曜日', '1000～2000円', 50, '460-0001', '愛知県名古屋市中村区名駅1-1-1', '052-123-4567');</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="Q23">
         <v>1</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23">
         <v>2</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23">
         <v>3</v>
       </c>
-      <c r="T23" s="21" t="s">
+      <c r="T23" t="s">
         <v>362</v>
       </c>
-      <c r="U23" s="21" t="s">
+      <c r="U23" t="s">
         <v>366</v>
       </c>
-      <c r="V23" s="21" t="s">
+      <c r="V23" t="s">
         <v>367</v>
       </c>
-      <c r="W23" s="21">
+      <c r="W23">
         <f>VLOOKUP(T23,カテゴリ!$B:$C,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="X23" s="21">
+      <c r="X23">
         <f>VLOOKUP(U23,カテゴリ!$B:$C,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="Y23" s="21">
+      <c r="Y23">
         <f>VLOOKUP(V23,カテゴリ!$B:$C,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="AA23" s="21" t="str">
+      <c r="AA23" t="str">
         <f>"INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES ("&amp;Q23&amp;", "&amp;$A23&amp;", "&amp;W23&amp;");"</f>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (1, 1, 1);</v>
       </c>
-      <c r="AB23" s="21" t="str">
+      <c r="AB23" t="str">
         <f t="shared" ref="AB23:AC23" si="3">"INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES ("&amp;R23&amp;", "&amp;$A23&amp;", "&amp;X23&amp;");"</f>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (2, 1, 2);</v>
       </c>
-      <c r="AC23" s="21" t="str">
+      <c r="AC23" t="str">
         <f t="shared" si="3"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (3, 1, 3);</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="21" customFormat="1">
-      <c r="A24" s="21">
+    <row r="24" spans="1:29">
+      <c r="A24">
         <f t="shared" ref="A24:A42" si="4">A3</f>
         <v>2</v>
       </c>
-      <c r="B24" s="21" t="str">
+      <c r="B24" t="str">
         <f t="shared" ref="B24:D24" si="5">TEXT(B3,"'@'")</f>
         <v>'手羽先王'</v>
       </c>
-      <c r="C24" s="21" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="5"/>
         <v>'store02.jpg'</v>
       </c>
-      <c r="D24" s="21" t="str">
+      <c r="D24" t="str">
         <f t="shared" si="5"/>
         <v>'パリッとジューシーな手羽先が自慢'</v>
       </c>
-      <c r="E24" s="21" t="str">
+      <c r="E24" t="str">
         <f t="shared" ref="E24:F24" si="6">TEXT(E3,"'H:MM'")</f>
         <v>'17:00'</v>
       </c>
-      <c r="F24" s="21" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="6"/>
         <v>'0:00'</v>
       </c>
-      <c r="G24" s="21" t="str">
-        <f t="shared" ref="G24:L24" si="7">TEXT(G3,"'@'")</f>
+      <c r="G24" t="str">
+        <f t="shared" ref="G24:H24" si="7">TEXT(G3,"'@'")</f>
         <v>'火曜日'</v>
       </c>
-      <c r="H24" s="21" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="7"/>
         <v>'500～1500円'</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24">
         <f t="shared" ref="I24:I42" si="8">I3</f>
         <v>30</v>
       </c>
-      <c r="J24" s="21" t="str">
+      <c r="J24" t="str">
         <f t="shared" ref="J24:L24" si="9">TEXT(J3,"'@'")</f>
         <v>'460-0011'</v>
       </c>
-      <c r="K24" s="21" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="9"/>
         <v>'愛知県名古屋市中区栄3-2-1'</v>
       </c>
-      <c r="L24" s="21" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="9"/>
         <v>'052-234-5678'</v>
       </c>
-      <c r="O24" s="21" t="str">
+      <c r="O24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (2, '手羽先王', 'store02.jpg', 'パリッとジューシーな手羽先が自慢', '17:00', '0:00', '火曜日', '500～1500円', 30, '460-0011', '愛知県名古屋市中区栄3-2-1', '052-234-5678');</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24">
         <v>4</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24">
         <v>5</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24">
         <v>6</v>
       </c>
-      <c r="T24" s="21" t="s">
+      <c r="T24" t="s">
         <v>363</v>
       </c>
-      <c r="U24" s="21" t="s">
+      <c r="U24" t="s">
         <v>368</v>
       </c>
-      <c r="V24" s="21" t="s">
+      <c r="V24" t="s">
         <v>369</v>
       </c>
-      <c r="W24" s="21">
+      <c r="W24">
         <f>VLOOKUP(T24,カテゴリ!$B:$C,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24">
         <f>VLOOKUP(U24,カテゴリ!$B:$C,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="Y24">
         <f>VLOOKUP(V24,カテゴリ!$B:$C,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="AA24" s="21" t="str">
+      <c r="AA24" t="str">
         <f t="shared" ref="AA24:AA42" si="10">"INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES ("&amp;Q24&amp;", "&amp;$A24&amp;", "&amp;W24&amp;");"</f>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (4, 2, 4);</v>
       </c>
-      <c r="AB24" s="21" t="str">
+      <c r="AB24" t="str">
         <f t="shared" ref="AB24:AB42" si="11">"INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES ("&amp;R24&amp;", "&amp;$A24&amp;", "&amp;X24&amp;");"</f>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (5, 2, 5);</v>
       </c>
-      <c r="AC24" s="21" t="str">
+      <c r="AC24" t="str">
         <f t="shared" ref="AC24:AC42" si="12">"INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES ("&amp;S24&amp;", "&amp;$A24&amp;", "&amp;Y24&amp;");"</f>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (6, 2, 6);</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="21" customFormat="1">
-      <c r="A25" s="21">
+    <row r="25" spans="1:29">
+      <c r="A25">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B25" s="21" t="str">
+      <c r="B25" t="str">
         <f t="shared" ref="B25:D25" si="13">TEXT(B4,"'@'")</f>
         <v>'あんかけスパHOUSE'</v>
       </c>
-      <c r="C25" s="21" t="str">
+      <c r="C25" t="str">
         <f t="shared" si="13"/>
         <v>'store03.jpg'</v>
       </c>
-      <c r="D25" s="21" t="str">
+      <c r="D25" t="str">
         <f t="shared" si="13"/>
         <v>'濃厚なあんかけスパが楽しめる専門店'</v>
       </c>
-      <c r="E25" s="21" t="str">
+      <c r="E25" t="str">
         <f t="shared" ref="E25:F25" si="14">TEXT(E4,"'H:MM'")</f>
         <v>'10:00'</v>
       </c>
-      <c r="F25" s="21" t="str">
+      <c r="F25" t="str">
         <f t="shared" si="14"/>
         <v>'21:00'</v>
       </c>
-      <c r="G25" s="21" t="str">
-        <f t="shared" ref="G25:L25" si="15">TEXT(G4,"'@'")</f>
+      <c r="G25" t="str">
+        <f t="shared" ref="G25:H25" si="15">TEXT(G4,"'@'")</f>
         <v>'なし'</v>
       </c>
-      <c r="H25" s="21" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="15"/>
         <v>'800～1500円'</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="J25" s="21" t="str">
+      <c r="J25" t="str">
         <f t="shared" ref="J25:L25" si="16">TEXT(J4,"'@'")</f>
         <v>'460-0022'</v>
       </c>
-      <c r="K25" s="21" t="str">
+      <c r="K25" t="str">
         <f t="shared" si="16"/>
         <v>'愛知県名古屋市東区葵1-3-2'</v>
       </c>
-      <c r="L25" s="21" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="16"/>
         <v>'052-345-6789'</v>
       </c>
-      <c r="O25" s="21" t="str">
+      <c r="O25" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (3, 'あんかけスパHOUSE', 'store03.jpg', '濃厚なあんかけスパが楽しめる専門店', '10:00', '21:00', 'なし', '800～1500円', 40, '460-0022', '愛知県名古屋市東区葵1-3-2', '052-345-6789');</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25">
         <v>7</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25">
         <v>8</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25">
         <v>9</v>
       </c>
-      <c r="T25" s="21" t="s">
+      <c r="T25" t="s">
         <v>370</v>
       </c>
-      <c r="U25" s="21" t="s">
+      <c r="U25" t="s">
         <v>371</v>
       </c>
-      <c r="V25" s="21" t="s">
+      <c r="V25" t="s">
         <v>372</v>
       </c>
-      <c r="W25" s="21">
+      <c r="W25">
         <f>VLOOKUP(T25,カテゴリ!$B:$C,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="X25" s="21">
+      <c r="X25">
         <f>VLOOKUP(U25,カテゴリ!$B:$C,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="Y25" s="21">
+      <c r="Y25">
         <f>VLOOKUP(V25,カテゴリ!$B:$C,2,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="AA25" s="21" t="str">
+      <c r="AA25" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (7, 3, 7);</v>
       </c>
-      <c r="AB25" s="21" t="str">
+      <c r="AB25" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (8, 3, 8);</v>
       </c>
-      <c r="AC25" s="21" t="str">
+      <c r="AC25" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (9, 3, 9);</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="21" customFormat="1">
-      <c r="A26" s="21">
+    <row r="26" spans="1:29">
+      <c r="A26">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B26" s="21" t="str">
+      <c r="B26" t="str">
         <f t="shared" ref="B26:D26" si="17">TEXT(B5,"'@'")</f>
         <v>'ひつまぶし屋'</v>
       </c>
-      <c r="C26" s="21" t="str">
+      <c r="C26" t="str">
         <f t="shared" si="17"/>
         <v>'store04.jpg'</v>
       </c>
-      <c r="D26" s="21" t="str">
+      <c r="D26" t="str">
         <f t="shared" si="17"/>
         <v>'炭火で焼いたひつまぶしが人気の名店'</v>
       </c>
-      <c r="E26" s="21" t="str">
+      <c r="E26" t="str">
         <f t="shared" ref="E26:F26" si="18">TEXT(E5,"'H:MM'")</f>
         <v>'11:30'</v>
       </c>
-      <c r="F26" s="21" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="18"/>
         <v>'20:30'</v>
       </c>
-      <c r="G26" s="21" t="str">
-        <f t="shared" ref="G26:L26" si="19">TEXT(G5,"'@'")</f>
+      <c r="G26" t="str">
+        <f t="shared" ref="G26:H26" si="19">TEXT(G5,"'@'")</f>
         <v>'月曜日'</v>
       </c>
-      <c r="H26" s="21" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="19"/>
         <v>'2000～3500円'</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="J26" s="21" t="str">
+      <c r="J26" t="str">
         <f t="shared" ref="J26:L26" si="20">TEXT(J5,"'@'")</f>
         <v>'460-0033'</v>
       </c>
-      <c r="K26" s="21" t="str">
+      <c r="K26" t="str">
         <f t="shared" si="20"/>
         <v>'愛知県名古屋市千種区今池2-4-3'</v>
       </c>
-      <c r="L26" s="21" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="20"/>
         <v>'052-456-7890'</v>
       </c>
-      <c r="O26" s="21" t="str">
+      <c r="O26" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (4, 'ひつまぶし屋', 'store04.jpg', '炭火で焼いたひつまぶしが人気の名店', '11:30', '20:30', '月曜日', '2000～3500円', 60, '460-0033', '愛知県名古屋市千種区今池2-4-3', '052-456-7890');</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26">
         <v>10</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26">
         <v>11</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26">
         <v>12</v>
       </c>
-      <c r="T26" s="21" t="s">
+      <c r="T26" t="s">
         <v>373</v>
       </c>
-      <c r="U26" s="21" t="s">
+      <c r="U26" t="s">
         <v>374</v>
       </c>
-      <c r="V26" s="21" t="s">
+      <c r="V26" t="s">
         <v>375</v>
       </c>
-      <c r="W26" s="21">
+      <c r="W26">
         <f>VLOOKUP(T26,カテゴリ!$B:$C,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="X26" s="21">
+      <c r="X26">
         <f>VLOOKUP(U26,カテゴリ!$B:$C,2,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="Y26" s="21">
+      <c r="Y26">
         <f>VLOOKUP(V26,カテゴリ!$B:$C,2,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="AA26" s="21" t="str">
+      <c r="AA26" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (10, 4, 10);</v>
       </c>
-      <c r="AB26" s="21" t="str">
+      <c r="AB26" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (11, 4, 11);</v>
       </c>
-      <c r="AC26" s="21" t="str">
+      <c r="AC26" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (12, 4, 12);</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="21" customFormat="1">
-      <c r="A27" s="21">
+    <row r="27" spans="1:29">
+      <c r="A27">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="B27" t="str">
         <f t="shared" ref="B27:D27" si="21">TEXT(B6,"'@'")</f>
         <v>'どて煮横丁'</v>
       </c>
-      <c r="C27" s="21" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="21"/>
         <v>'store05.jpg'</v>
       </c>
-      <c r="D27" s="21" t="str">
+      <c r="D27" t="str">
         <f t="shared" si="21"/>
         <v>'こだわりの味噌で煮込んだどて煮が味わえる'</v>
       </c>
-      <c r="E27" s="21" t="str">
+      <c r="E27" t="str">
         <f t="shared" ref="E27:F27" si="22">TEXT(E6,"'H:MM'")</f>
         <v>'12:00'</v>
       </c>
-      <c r="F27" s="21" t="str">
+      <c r="F27" t="str">
         <f t="shared" si="22"/>
         <v>'22:00'</v>
       </c>
-      <c r="G27" s="21" t="str">
-        <f t="shared" ref="G27:L27" si="23">TEXT(G6,"'@'")</f>
+      <c r="G27" t="str">
+        <f t="shared" ref="G27:H27" si="23">TEXT(G6,"'@'")</f>
         <v>'木曜日'</v>
       </c>
-      <c r="H27" s="21" t="str">
+      <c r="H27" t="str">
         <f t="shared" si="23"/>
         <v>'600～1200円'</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="J27" s="21" t="str">
+      <c r="J27" t="str">
         <f t="shared" ref="J27:L27" si="24">TEXT(J6,"'@'")</f>
         <v>'460-0044'</v>
       </c>
-      <c r="K27" s="21" t="str">
+      <c r="K27" t="str">
         <f t="shared" si="24"/>
         <v>'愛知県名古屋市熱田区神宮1-5-4'</v>
       </c>
-      <c r="L27" s="21" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="24"/>
         <v>'052-567-8901'</v>
       </c>
-      <c r="O27" s="21" t="str">
+      <c r="O27" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (5, 'どて煮横丁', 'store05.jpg', 'こだわりの味噌で煮込んだどて煮が味わえる', '12:00', '22:00', '木曜日', '600～1200円', 25, '460-0044', '愛知県名古屋市熱田区神宮1-5-4', '052-567-8901');</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27">
         <v>13</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27">
         <v>14</v>
       </c>
-      <c r="S27" s="21">
+      <c r="S27">
         <v>15</v>
       </c>
-      <c r="T27" s="21" t="s">
+      <c r="T27" t="s">
         <v>376</v>
       </c>
-      <c r="U27" s="21" t="s">
+      <c r="U27" t="s">
         <v>377</v>
       </c>
-      <c r="V27" s="21" t="s">
+      <c r="V27" t="s">
         <v>368</v>
       </c>
-      <c r="W27" s="21">
+      <c r="W27">
         <f>VLOOKUP(T27,カテゴリ!$B:$C,2,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="X27" s="21">
+      <c r="X27">
         <f>VLOOKUP(U27,カテゴリ!$B:$C,2,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="Y27" s="21">
+      <c r="Y27">
         <f>VLOOKUP(V27,カテゴリ!$B:$C,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AA27" s="21" t="str">
+      <c r="AA27" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (13, 5, 13);</v>
       </c>
-      <c r="AB27" s="21" t="str">
+      <c r="AB27" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (14, 5, 14);</v>
       </c>
-      <c r="AC27" s="21" t="str">
+      <c r="AC27" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (15, 5, 5);</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="21" customFormat="1">
-      <c r="A28" s="21">
+    <row r="28" spans="1:29">
+      <c r="A28">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="B28" t="str">
         <f t="shared" ref="B28:D28" si="25">TEXT(B7,"'@'")</f>
         <v>'台湾ラーメン亭'</v>
       </c>
-      <c r="C28" s="21" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="25"/>
         <v>'store06.jpg'</v>
       </c>
-      <c r="D28" s="21" t="str">
+      <c r="D28" t="str">
         <f t="shared" si="25"/>
         <v>'ピリ辛でクセになる台湾ラーメン専門店'</v>
       </c>
-      <c r="E28" s="21" t="str">
+      <c r="E28" t="str">
         <f t="shared" ref="E28:F28" si="26">TEXT(E7,"'H:MM'")</f>
         <v>'18:00'</v>
       </c>
-      <c r="F28" s="21" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="26"/>
         <v>'2:00'</v>
       </c>
-      <c r="G28" s="21" t="str">
-        <f t="shared" ref="G28:L28" si="27">TEXT(G7,"'@'")</f>
+      <c r="G28" t="str">
+        <f t="shared" ref="G28:H28" si="27">TEXT(G7,"'@'")</f>
         <v>'日曜日'</v>
       </c>
-      <c r="H28" s="21" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="27"/>
         <v>'700～1000円'</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="J28" s="21" t="str">
+      <c r="J28" t="str">
         <f t="shared" ref="J28:L28" si="28">TEXT(J7,"'@'")</f>
         <v>'460-0055'</v>
       </c>
-      <c r="K28" s="21" t="str">
+      <c r="K28" t="str">
         <f t="shared" si="28"/>
         <v>'愛知県名古屋市北区清水1-6-5'</v>
       </c>
-      <c r="L28" s="21" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="28"/>
         <v>'052-678-9012'</v>
       </c>
-      <c r="O28" s="21" t="str">
+      <c r="O28" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (6, '台湾ラーメン亭', 'store06.jpg', 'ピリ辛でクセになる台湾ラーメン専門店', '18:00', '2:00', '日曜日', '700～1000円', 35, '460-0055', '愛知県名古屋市北区清水1-6-5', '052-678-9012');</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28">
         <v>16</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28">
         <v>17</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28">
         <v>18</v>
       </c>
-      <c r="T28" s="21" t="s">
+      <c r="T28" t="s">
         <v>378</v>
       </c>
-      <c r="U28" s="21" t="s">
+      <c r="U28" t="s">
         <v>364</v>
       </c>
-      <c r="V28" s="21" t="s">
+      <c r="V28" t="s">
         <v>379</v>
       </c>
-      <c r="W28" s="21">
+      <c r="W28">
         <f>VLOOKUP(T28,カテゴリ!$B:$C,2,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="X28" s="21">
+      <c r="X28">
         <f>VLOOKUP(U28,カテゴリ!$B:$C,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="Y28">
         <f>VLOOKUP(V28,カテゴリ!$B:$C,2,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="AA28" s="21" t="str">
+      <c r="AA28" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (16, 6, 15);</v>
       </c>
-      <c r="AB28" s="21" t="str">
+      <c r="AB28" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (17, 6, 16);</v>
       </c>
-      <c r="AC28" s="21" t="str">
+      <c r="AC28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (18, 6, 17);</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="21" customFormat="1">
-      <c r="A29" s="21">
+    <row r="29" spans="1:29">
+      <c r="A29">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B29" s="21" t="str">
+      <c r="B29" t="str">
         <f t="shared" ref="B29:D29" si="29">TEXT(B8,"'@'")</f>
         <v>'天むす小路'</v>
       </c>
-      <c r="C29" s="21" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="29"/>
         <v>'store07.jpg'</v>
       </c>
-      <c r="D29" s="21" t="str">
+      <c r="D29" t="str">
         <f t="shared" si="29"/>
         <v>'もちもちのおむすび天むすが名物'</v>
       </c>
-      <c r="E29" s="21" t="str">
+      <c r="E29" t="str">
         <f t="shared" ref="E29:F29" si="30">TEXT(E8,"'H:MM'")</f>
         <v>'8:00'</v>
       </c>
-      <c r="F29" s="21" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="30"/>
         <v>'19:00'</v>
       </c>
-      <c r="G29" s="21" t="str">
-        <f t="shared" ref="G29:L29" si="31">TEXT(G8,"'@'")</f>
+      <c r="G29" t="str">
+        <f t="shared" ref="G29:H29" si="31">TEXT(G8,"'@'")</f>
         <v>'火曜日'</v>
       </c>
-      <c r="H29" s="21" t="str">
+      <c r="H29" t="str">
         <f t="shared" si="31"/>
         <v>'500～800円'</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="J29" s="21" t="str">
+      <c r="J29" t="str">
         <f t="shared" ref="J29:L29" si="32">TEXT(J8,"'@'")</f>
         <v>'460-0066'</v>
       </c>
-      <c r="K29" s="21" t="str">
+      <c r="K29" t="str">
         <f t="shared" si="32"/>
         <v>'愛知県名古屋市昭和区広路町7-8-6'</v>
       </c>
-      <c r="L29" s="21" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="32"/>
         <v>'052-789-0123'</v>
       </c>
-      <c r="O29" s="21" t="str">
+      <c r="O29" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (7, '天むす小路', 'store07.jpg', 'もちもちのおむすび天むすが名物', '8:00', '19:00', '火曜日', '500～800円', 20, '460-0066', '愛知県名古屋市昭和区広路町7-8-6', '052-789-0123');</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Q29">
         <v>19</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29">
         <v>20</v>
       </c>
-      <c r="S29" s="21">
+      <c r="S29">
         <v>21</v>
       </c>
-      <c r="T29" s="21" t="s">
+      <c r="T29" t="s">
         <v>380</v>
       </c>
-      <c r="U29" s="21" t="s">
+      <c r="U29" t="s">
         <v>381</v>
       </c>
-      <c r="V29" s="21" t="s">
+      <c r="V29" t="s">
         <v>382</v>
       </c>
-      <c r="W29" s="21">
+      <c r="W29">
         <f>VLOOKUP(T29,カテゴリ!$B:$C,2,FALSE)</f>
         <v>18</v>
       </c>
-      <c r="X29" s="21">
+      <c r="X29">
         <f>VLOOKUP(U29,カテゴリ!$B:$C,2,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="Y29">
         <f>VLOOKUP(V29,カテゴリ!$B:$C,2,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="AA29" s="21" t="str">
+      <c r="AA29" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (19, 7, 18);</v>
       </c>
-      <c r="AB29" s="21" t="str">
+      <c r="AB29" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (20, 7, 19);</v>
       </c>
-      <c r="AC29" s="21" t="str">
+      <c r="AC29" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (21, 7, 20);</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="21" customFormat="1">
-      <c r="A30" s="21">
+    <row r="30" spans="1:29">
+      <c r="A30">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B30" s="21" t="str">
+      <c r="B30" t="str">
         <f t="shared" ref="B30:D30" si="33">TEXT(B9,"'@'")</f>
         <v>'きしめんの里'</v>
       </c>
-      <c r="C30" s="21" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="33"/>
         <v>'store08.jpg'</v>
       </c>
-      <c r="D30" s="21" t="str">
+      <c r="D30" t="str">
         <f t="shared" si="33"/>
         <v>'名古屋伝統のきしめんを手軽に楽しめる'</v>
       </c>
-      <c r="E30" s="21" t="str">
+      <c r="E30" t="str">
         <f t="shared" ref="E30:F30" si="34">TEXT(E9,"'H:MM'")</f>
         <v>'10:30'</v>
       </c>
-      <c r="F30" s="21" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="34"/>
         <v>'20:00'</v>
       </c>
-      <c r="G30" s="21" t="str">
-        <f t="shared" ref="G30:L30" si="35">TEXT(G9,"'@'")</f>
+      <c r="G30" t="str">
+        <f t="shared" ref="G30:H30" si="35">TEXT(G9,"'@'")</f>
         <v>'水曜日'</v>
       </c>
-      <c r="H30" s="21" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="35"/>
         <v>'600～1000円'</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="J30" s="21" t="str">
+      <c r="J30" t="str">
         <f t="shared" ref="J30:L30" si="36">TEXT(J9,"'@'")</f>
         <v>'460-0077'</v>
       </c>
-      <c r="K30" s="21" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="36"/>
         <v>'愛知県名古屋市西区大曽根3-9-7'</v>
       </c>
-      <c r="L30" s="21" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="36"/>
         <v>'052-890-1234'</v>
       </c>
-      <c r="O30" s="21" t="str">
+      <c r="O30" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (8, 'きしめんの里', 'store08.jpg', '名古屋伝統のきしめんを手軽に楽しめる', '10:30', '20:00', '水曜日', '600～1000円', 40, '460-0077', '愛知県名古屋市西区大曽根3-9-7', '052-890-1234');</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30">
         <v>22</v>
       </c>
-      <c r="R30" s="21">
+      <c r="R30">
         <v>23</v>
       </c>
-      <c r="S30" s="21">
+      <c r="S30">
         <v>24</v>
       </c>
-      <c r="T30" s="21" t="s">
+      <c r="T30" t="s">
         <v>383</v>
       </c>
-      <c r="U30" s="21" t="s">
+      <c r="U30" t="s">
         <v>384</v>
       </c>
-      <c r="V30" s="21" t="s">
+      <c r="V30" t="s">
         <v>385</v>
       </c>
-      <c r="W30" s="21">
+      <c r="W30">
         <f>VLOOKUP(T30,カテゴリ!$B:$C,2,FALSE)</f>
         <v>21</v>
       </c>
-      <c r="X30" s="21">
+      <c r="X30">
         <f>VLOOKUP(U30,カテゴリ!$B:$C,2,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="Y30" s="21">
+      <c r="Y30">
         <f>VLOOKUP(V30,カテゴリ!$B:$C,2,FALSE)</f>
         <v>23</v>
       </c>
-      <c r="AA30" s="21" t="str">
+      <c r="AA30" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (22, 8, 21);</v>
       </c>
-      <c r="AB30" s="21" t="str">
+      <c r="AB30" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (23, 8, 22);</v>
       </c>
-      <c r="AC30" s="21" t="str">
+      <c r="AC30" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (24, 8, 23);</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="21" customFormat="1">
-      <c r="A31" s="21">
+    <row r="31" spans="1:29">
+      <c r="A31">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B31" s="21" t="str">
+      <c r="B31" t="str">
         <f t="shared" ref="B31:D31" si="37">TEXT(B10,"'@'")</f>
         <v>'味噌おでん楽市'</v>
       </c>
-      <c r="C31" s="21" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="37"/>
         <v>'store09.jpg'</v>
       </c>
-      <c r="D31" s="21" t="str">
+      <c r="D31" t="str">
         <f t="shared" si="37"/>
         <v>'地元産の味噌で作る濃厚おでん'</v>
       </c>
-      <c r="E31" s="21" t="str">
+      <c r="E31" t="str">
         <f t="shared" ref="E31:F31" si="38">TEXT(E10,"'H:MM'")</f>
         <v>'15:00'</v>
       </c>
-      <c r="F31" s="21" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="38"/>
         <v>'23:00'</v>
       </c>
-      <c r="G31" s="21" t="str">
-        <f t="shared" ref="G31:L31" si="39">TEXT(G10,"'@'")</f>
+      <c r="G31" t="str">
+        <f t="shared" ref="G31:H31" si="39">TEXT(G10,"'@'")</f>
         <v>'月曜日'</v>
       </c>
-      <c r="H31" s="21" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="39"/>
         <v>'800～1500円'</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="J31" s="21" t="str">
+      <c r="J31" t="str">
         <f t="shared" ref="J31:L31" si="40">TEXT(J10,"'@'")</f>
         <v>'460-0088'</v>
       </c>
-      <c r="K31" s="21" t="str">
+      <c r="K31" t="str">
         <f t="shared" si="40"/>
         <v>'愛知県名古屋市瑞穂区妙音通4-10-9'</v>
       </c>
-      <c r="L31" s="21" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="40"/>
         <v>'052-901-2345'</v>
       </c>
-      <c r="O31" s="21" t="str">
+      <c r="O31" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (9, '味噌おでん楽市', 'store09.jpg', '地元産の味噌で作る濃厚おでん', '15:00', '23:00', '月曜日', '800～1500円', 30, '460-0088', '愛知県名古屋市瑞穂区妙音通4-10-9', '052-901-2345');</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Q31">
         <v>25</v>
       </c>
-      <c r="R31" s="21">
+      <c r="R31">
         <v>26</v>
       </c>
-      <c r="S31" s="21">
+      <c r="S31">
         <v>27</v>
       </c>
-      <c r="T31" s="21" t="s">
+      <c r="T31" t="s">
         <v>386</v>
       </c>
-      <c r="U31" s="21" t="s">
+      <c r="U31" t="s">
         <v>377</v>
       </c>
-      <c r="V31" s="21" t="s">
+      <c r="V31" t="s">
         <v>368</v>
       </c>
-      <c r="W31" s="21">
+      <c r="W31">
         <f>VLOOKUP(T31,カテゴリ!$B:$C,2,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="X31" s="21">
+      <c r="X31">
         <f>VLOOKUP(U31,カテゴリ!$B:$C,2,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="Y31" s="21">
+      <c r="Y31">
         <f>VLOOKUP(V31,カテゴリ!$B:$C,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AA31" s="21" t="str">
+      <c r="AA31" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (25, 9, 24);</v>
       </c>
-      <c r="AB31" s="21" t="str">
+      <c r="AB31" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (26, 9, 14);</v>
       </c>
-      <c r="AC31" s="21" t="str">
+      <c r="AC31" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (27, 9, 5);</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="21" customFormat="1">
-      <c r="A32" s="21">
+    <row r="32" spans="1:29">
+      <c r="A32">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B32" s="21" t="str">
+      <c r="B32" t="str">
         <f t="shared" ref="B32:D32" si="41">TEXT(B11,"'@'")</f>
         <v>'エビフリャーパーク'</v>
       </c>
-      <c r="C32" s="21" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="41"/>
         <v>'store10.jpg'</v>
       </c>
-      <c r="D32" s="21" t="str">
+      <c r="D32" t="str">
         <f t="shared" si="41"/>
         <v>'名古屋名物エビフライが主役のカフェ風店'</v>
       </c>
-      <c r="E32" s="21" t="str">
+      <c r="E32" t="str">
         <f t="shared" ref="E32:F32" si="42">TEXT(E11,"'H:MM'")</f>
         <v>'11:00'</v>
       </c>
-      <c r="F32" s="21" t="str">
+      <c r="F32" t="str">
         <f t="shared" si="42"/>
         <v>'21:00'</v>
       </c>
-      <c r="G32" s="21" t="str">
-        <f t="shared" ref="G32:L32" si="43">TEXT(G11,"'@'")</f>
+      <c r="G32" t="str">
+        <f t="shared" ref="G32:H32" si="43">TEXT(G11,"'@'")</f>
         <v>'なし'</v>
       </c>
-      <c r="H32" s="21" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="43"/>
         <v>'1200～2000円'</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="J32" s="21" t="str">
+      <c r="J32" t="str">
         <f t="shared" ref="J32:L32" si="44">TEXT(J11,"'@'")</f>
         <v>'460-0099'</v>
       </c>
-      <c r="K32" s="21" t="str">
+      <c r="K32" t="str">
         <f t="shared" si="44"/>
         <v>'愛知県名古屋市緑区鴻仏目2-8-10'</v>
       </c>
-      <c r="L32" s="21" t="str">
+      <c r="L32" t="str">
         <f t="shared" si="44"/>
         <v>'052-012-3456'</v>
       </c>
-      <c r="O32" s="21" t="str">
+      <c r="O32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (10, 'エビフリャーパーク', 'store10.jpg', '名古屋名物エビフライが主役のカフェ風店', '11:00', '21:00', 'なし', '1200～2000円', 50, '460-0099', '愛知県名古屋市緑区鴻仏目2-8-10', '052-012-3456');</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32">
         <v>28</v>
       </c>
-      <c r="R32" s="21">
+      <c r="R32">
         <v>29</v>
       </c>
-      <c r="S32" s="21">
+      <c r="S32">
         <v>30</v>
       </c>
-      <c r="T32" s="21" t="s">
+      <c r="T32" t="s">
         <v>387</v>
       </c>
-      <c r="U32" s="21" t="s">
+      <c r="U32" t="s">
         <v>388</v>
       </c>
-      <c r="V32" s="21" t="s">
+      <c r="V32" t="s">
         <v>389</v>
       </c>
-      <c r="W32" s="21">
+      <c r="W32">
         <f>VLOOKUP(T32,カテゴリ!$B:$C,2,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="X32" s="21">
+      <c r="X32">
         <f>VLOOKUP(U32,カテゴリ!$B:$C,2,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="Y32" s="21">
+      <c r="Y32">
         <f>VLOOKUP(V32,カテゴリ!$B:$C,2,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="AA32" s="21" t="str">
+      <c r="AA32" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (28, 10, 25);</v>
       </c>
-      <c r="AB32" s="21" t="str">
+      <c r="AB32" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (29, 10, 26);</v>
       </c>
-      <c r="AC32" s="21" t="str">
+      <c r="AC32" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (30, 10, 27);</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="21" customFormat="1">
-      <c r="A33" s="21">
+    <row r="33" spans="1:29">
+      <c r="A33">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B33" s="21" t="str">
+      <c r="B33" t="str">
         <f t="shared" ref="B33:D33" si="45">TEXT(B12,"'@'")</f>
         <v>'大須たこ焼き本舗'</v>
       </c>
-      <c r="C33" s="21" t="str">
+      <c r="C33" t="str">
         <f t="shared" si="45"/>
         <v>'store11.jpg'</v>
       </c>
-      <c r="D33" s="21" t="str">
+      <c r="D33" t="str">
         <f t="shared" si="45"/>
         <v>'外はカリカリ中はトロトロのたこ焼き専門店'</v>
       </c>
-      <c r="E33" s="21" t="str">
+      <c r="E33" t="str">
         <f t="shared" ref="E33:F33" si="46">TEXT(E12,"'H:MM'")</f>
         <v>'12:00'</v>
       </c>
-      <c r="F33" s="21" t="str">
+      <c r="F33" t="str">
         <f t="shared" si="46"/>
         <v>'22:00'</v>
       </c>
-      <c r="G33" s="21" t="str">
-        <f t="shared" ref="G33:L33" si="47">TEXT(G12,"'@'")</f>
+      <c r="G33" t="str">
+        <f t="shared" ref="G33:H33" si="47">TEXT(G12,"'@'")</f>
         <v>'水曜日'</v>
       </c>
-      <c r="H33" s="21" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="47"/>
         <v>'300～800円'</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="J33" s="21" t="str">
+      <c r="J33" t="str">
         <f t="shared" ref="J33:L33" si="48">TEXT(J12,"'@'")</f>
         <v>'460-8501'</v>
       </c>
-      <c r="K33" s="21" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="48"/>
         <v>'愛知県名古屋市中区大須3-9-18'</v>
       </c>
-      <c r="L33" s="21" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="48"/>
         <v>'052-123-6789'</v>
       </c>
-      <c r="O33" s="21" t="str">
+      <c r="O33" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (11, '大須たこ焼き本舗', 'store11.jpg', '外はカリカリ中はトロトロのたこ焼き専門店', '12:00', '22:00', '水曜日', '300～800円', 15, '460-8501', '愛知県名古屋市中区大須3-9-18', '052-123-6789');</v>
       </c>
-      <c r="Q33" s="21">
+      <c r="Q33">
         <v>31</v>
       </c>
-      <c r="R33" s="21">
+      <c r="R33">
         <v>32</v>
       </c>
-      <c r="S33" s="21">
+      <c r="S33">
         <v>33</v>
       </c>
-      <c r="T33" s="21" t="s">
+      <c r="T33" t="s">
         <v>390</v>
       </c>
-      <c r="U33" s="21" t="s">
+      <c r="U33" t="s">
         <v>381</v>
       </c>
-      <c r="V33" s="21" t="s">
+      <c r="V33" t="s">
         <v>391</v>
       </c>
-      <c r="W33" s="21">
+      <c r="W33">
         <f>VLOOKUP(T33,カテゴリ!$B:$C,2,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="X33" s="21">
+      <c r="X33">
         <f>VLOOKUP(U33,カテゴリ!$B:$C,2,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="Y33" s="21">
+      <c r="Y33">
         <f>VLOOKUP(V33,カテゴリ!$B:$C,2,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="AA33" s="21" t="str">
+      <c r="AA33" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (31, 11, 28);</v>
       </c>
-      <c r="AB33" s="21" t="str">
+      <c r="AB33" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (32, 11, 19);</v>
       </c>
-      <c r="AC33" s="21" t="str">
+      <c r="AC33" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (33, 11, 29);</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="21" customFormat="1">
-      <c r="A34" s="21">
+    <row r="34" spans="1:29">
+      <c r="A34">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B34" s="21" t="str">
+      <c r="B34" t="str">
         <f t="shared" ref="B34:D34" si="49">TEXT(B13,"'@'")</f>
         <v>'名古屋カレーうどん処'</v>
       </c>
-      <c r="C34" s="21" t="str">
+      <c r="C34" t="str">
         <f t="shared" si="49"/>
         <v>'store12.jpg'</v>
       </c>
-      <c r="D34" s="21" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="49"/>
         <v>'スパイシーでコクのあるカレーうどんが評判'</v>
       </c>
-      <c r="E34" s="21" t="str">
+      <c r="E34" t="str">
         <f t="shared" ref="E34:F34" si="50">TEXT(E13,"'H:MM'")</f>
         <v>'11:00'</v>
       </c>
-      <c r="F34" s="21" t="str">
+      <c r="F34" t="str">
         <f t="shared" si="50"/>
         <v>'21:30'</v>
       </c>
-      <c r="G34" s="21" t="str">
-        <f t="shared" ref="G34:L34" si="51">TEXT(G13,"'@'")</f>
+      <c r="G34" t="str">
+        <f t="shared" ref="G34:H34" si="51">TEXT(G13,"'@'")</f>
         <v>'火曜日'</v>
       </c>
-      <c r="H34" s="21" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="51"/>
         <v>'800～1500円'</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="J34" s="21" t="str">
+      <c r="J34" t="str">
         <f t="shared" ref="J34:L34" si="52">TEXT(J13,"'@'")</f>
         <v>'460-8602'</v>
       </c>
-      <c r="K34" s="21" t="str">
+      <c r="K34" t="str">
         <f t="shared" si="52"/>
         <v>'愛知県名古屋市中村区黄金通5-12-3'</v>
       </c>
-      <c r="L34" s="21" t="str">
+      <c r="L34" t="str">
         <f t="shared" si="52"/>
         <v>'052-234-7890'</v>
       </c>
-      <c r="O34" s="21" t="str">
+      <c r="O34" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (12, '名古屋カレーうどん処', 'store12.jpg', 'スパイシーでコクのあるカレーうどんが評判', '11:00', '21:30', '火曜日', '800～1500円', 35, '460-8602', '愛知県名古屋市中村区黄金通5-12-3', '052-234-7890');</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34">
         <v>34</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34">
         <v>35</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34">
         <v>36</v>
       </c>
-      <c r="T34" s="21" t="s">
+      <c r="T34" t="s">
         <v>392</v>
       </c>
-      <c r="U34" s="21" t="s">
+      <c r="U34" t="s">
         <v>384</v>
       </c>
-      <c r="V34" s="21" t="s">
+      <c r="V34" t="s">
         <v>393</v>
       </c>
-      <c r="W34" s="21">
+      <c r="W34">
         <f>VLOOKUP(T34,カテゴリ!$B:$C,2,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="X34" s="21">
+      <c r="X34">
         <f>VLOOKUP(U34,カテゴリ!$B:$C,2,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="Y34">
         <f>VLOOKUP(V34,カテゴリ!$B:$C,2,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="AA34" s="21" t="str">
+      <c r="AA34" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (34, 12, 30);</v>
       </c>
-      <c r="AB34" s="21" t="str">
+      <c r="AB34" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (35, 12, 22);</v>
       </c>
-      <c r="AC34" s="21" t="str">
+      <c r="AC34" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (36, 12, 31);</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="21" customFormat="1">
-      <c r="A35" s="21">
+    <row r="35" spans="1:29">
+      <c r="A35">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B35" s="21" t="str">
+      <c r="B35" t="str">
         <f t="shared" ref="B35:D35" si="53">TEXT(B14,"'@'")</f>
         <v>'八丁味噌バーガー'</v>
       </c>
-      <c r="C35" s="21" t="str">
+      <c r="C35" t="str">
         <f t="shared" si="53"/>
         <v>'store13.jpg'</v>
       </c>
-      <c r="D35" s="21" t="str">
+      <c r="D35" t="str">
         <f t="shared" si="53"/>
         <v>'八丁味噌を使った個性派バーガーが人気'</v>
       </c>
-      <c r="E35" s="21" t="str">
+      <c r="E35" t="str">
         <f t="shared" ref="E35:F35" si="54">TEXT(E14,"'H:MM'")</f>
         <v>'10:00'</v>
       </c>
-      <c r="F35" s="21" t="str">
+      <c r="F35" t="str">
         <f t="shared" si="54"/>
         <v>'20:00'</v>
       </c>
-      <c r="G35" s="21" t="str">
-        <f t="shared" ref="G35:L35" si="55">TEXT(G14,"'@'")</f>
+      <c r="G35" t="str">
+        <f t="shared" ref="G35:H35" si="55">TEXT(G14,"'@'")</f>
         <v>'木曜日'</v>
       </c>
-      <c r="H35" s="21" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="55"/>
         <v>'500～1000円'</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="J35" s="21" t="str">
+      <c r="J35" t="str">
         <f t="shared" ref="J35:L35" si="56">TEXT(J14,"'@'")</f>
         <v>'460-8703'</v>
       </c>
-      <c r="K35" s="21" t="str">
+      <c r="K35" t="str">
         <f t="shared" si="56"/>
         <v>'愛知県名古屋市港区品川町1-15'</v>
       </c>
-      <c r="L35" s="21" t="str">
+      <c r="L35" t="str">
         <f t="shared" si="56"/>
         <v>'052-345-8901'</v>
       </c>
-      <c r="O35" s="21" t="str">
+      <c r="O35" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (13, '八丁味噌バーガー', 'store13.jpg', '八丁味噌を使った個性派バーガーが人気', '10:00', '20:00', '木曜日', '500～1000円', 25, '460-8703', '愛知県名古屋市港区品川町1-15', '052-345-8901');</v>
       </c>
-      <c r="Q35" s="21">
+      <c r="Q35">
         <v>37</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R35">
         <v>38</v>
       </c>
-      <c r="S35" s="21">
+      <c r="S35">
         <v>39</v>
       </c>
-      <c r="T35" s="21" t="s">
+      <c r="T35" t="s">
         <v>394</v>
       </c>
-      <c r="U35" s="21" t="s">
+      <c r="U35" t="s">
         <v>377</v>
       </c>
-      <c r="V35" s="21" t="s">
+      <c r="V35" t="s">
         <v>395</v>
       </c>
-      <c r="W35" s="21">
+      <c r="W35">
         <f>VLOOKUP(T35,カテゴリ!$B:$C,2,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="X35" s="21">
+      <c r="X35">
         <f>VLOOKUP(U35,カテゴリ!$B:$C,2,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="Y35" s="21">
+      <c r="Y35">
         <f>VLOOKUP(V35,カテゴリ!$B:$C,2,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="AA35" s="21" t="str">
+      <c r="AA35" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (37, 13, 32);</v>
       </c>
-      <c r="AB35" s="21" t="str">
+      <c r="AB35" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (38, 13, 14);</v>
       </c>
-      <c r="AC35" s="21" t="str">
+      <c r="AC35" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (39, 13, 33);</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="21" customFormat="1">
-      <c r="A36" s="21">
+    <row r="36" spans="1:29">
+      <c r="A36">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B36" s="21" t="str">
+      <c r="B36" t="str">
         <f t="shared" ref="B36:D36" si="57">TEXT(B15,"'@'")</f>
         <v>'焼きまんじゅう亭'</v>
       </c>
-      <c r="C36" s="21" t="str">
+      <c r="C36" t="str">
         <f t="shared" si="57"/>
         <v>'store14.jpg'</v>
       </c>
-      <c r="D36" s="21" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="57"/>
         <v>'香ばしく焼き上げた甘じょっぱいまんじゅうが絶品'</v>
       </c>
-      <c r="E36" s="21" t="str">
+      <c r="E36" t="str">
         <f t="shared" ref="E36:F36" si="58">TEXT(E15,"'H:MM'")</f>
         <v>'9:00'</v>
       </c>
-      <c r="F36" s="21" t="str">
+      <c r="F36" t="str">
         <f t="shared" si="58"/>
         <v>'18:00'</v>
       </c>
-      <c r="G36" s="21" t="str">
-        <f t="shared" ref="G36:L36" si="59">TEXT(G15,"'@'")</f>
+      <c r="G36" t="str">
+        <f t="shared" ref="G36:H36" si="59">TEXT(G15,"'@'")</f>
         <v>'月曜日'</v>
       </c>
-      <c r="H36" s="21" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="59"/>
         <v>'200～600円'</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="J36" s="21" t="str">
+      <c r="J36" t="str">
         <f t="shared" ref="J36:L36" si="60">TEXT(J15,"'@'")</f>
         <v>'460-8804'</v>
       </c>
-      <c r="K36" s="21" t="str">
+      <c r="K36" t="str">
         <f t="shared" si="60"/>
         <v>'愛知県名古屋市南区新田町2-4-6'</v>
       </c>
-      <c r="L36" s="21" t="str">
+      <c r="L36" t="str">
         <f t="shared" si="60"/>
         <v>'052-456-9012'</v>
       </c>
-      <c r="O36" s="21" t="str">
+      <c r="O36" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (14, '焼きまんじゅう亭', 'store14.jpg', '香ばしく焼き上げた甘じょっぱいまんじゅうが絶品', '9:00', '18:00', '月曜日', '200～600円', 20, '460-8804', '愛知県名古屋市南区新田町2-4-6', '052-456-9012');</v>
       </c>
-      <c r="Q36" s="21">
+      <c r="Q36">
         <v>40</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36">
         <v>41</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36">
         <v>42</v>
       </c>
-      <c r="T36" s="21" t="s">
+      <c r="T36" t="s">
         <v>396</v>
       </c>
-      <c r="U36" s="21" t="s">
+      <c r="U36" t="s">
         <v>381</v>
       </c>
-      <c r="V36" s="21" t="s">
+      <c r="V36" t="s">
         <v>382</v>
       </c>
-      <c r="W36" s="21">
+      <c r="W36">
         <f>VLOOKUP(T36,カテゴリ!$B:$C,2,FALSE)</f>
         <v>34</v>
       </c>
-      <c r="X36" s="21">
+      <c r="X36">
         <f>VLOOKUP(U36,カテゴリ!$B:$C,2,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="Y36">
         <f>VLOOKUP(V36,カテゴリ!$B:$C,2,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="AA36" s="21" t="str">
+      <c r="AA36" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (40, 14, 34);</v>
       </c>
-      <c r="AB36" s="21" t="str">
+      <c r="AB36" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (41, 14, 19);</v>
       </c>
-      <c r="AC36" s="21" t="str">
+      <c r="AC36" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (42, 14, 20);</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="21" customFormat="1">
-      <c r="A37" s="21">
+    <row r="37" spans="1:29">
+      <c r="A37">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B37" s="21" t="str">
+      <c r="B37" t="str">
         <f t="shared" ref="B37:D37" si="61">TEXT(B16,"'@'")</f>
         <v>'ホルモン串楽屋'</v>
       </c>
-      <c r="C37" s="21" t="str">
+      <c r="C37" t="str">
         <f t="shared" si="61"/>
         <v>'store15.jpg'</v>
       </c>
-      <c r="D37" s="21" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="61"/>
         <v>'味噌だれが絶妙なホルモン串の専門店'</v>
       </c>
-      <c r="E37" s="21" t="str">
+      <c r="E37" t="str">
         <f t="shared" ref="E37:F37" si="62">TEXT(E16,"'H:MM'")</f>
         <v>'17:00'</v>
       </c>
-      <c r="F37" s="21" t="str">
+      <c r="F37" t="str">
         <f t="shared" si="62"/>
         <v>'23:30'</v>
       </c>
-      <c r="G37" s="21" t="str">
-        <f t="shared" ref="G37:L37" si="63">TEXT(G16,"'@'")</f>
+      <c r="G37" t="str">
+        <f t="shared" ref="G37:H37" si="63">TEXT(G16,"'@'")</f>
         <v>'日曜日'</v>
       </c>
-      <c r="H37" s="21" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="63"/>
         <v>'500～1200円'</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="J37" s="21" t="str">
+      <c r="J37" t="str">
         <f t="shared" ref="J37:L37" si="64">TEXT(J16,"'@'")</f>
         <v>'460-8905'</v>
       </c>
-      <c r="K37" s="21" t="str">
+      <c r="K37" t="str">
         <f t="shared" si="64"/>
         <v>'愛知県名古屋市中川区八田町3-8-9'</v>
       </c>
-      <c r="L37" s="21" t="str">
+      <c r="L37" t="str">
         <f t="shared" si="64"/>
         <v>'052-567-0123'</v>
       </c>
-      <c r="O37" s="21" t="str">
+      <c r="O37" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (15, 'ホルモン串楽屋', 'store15.jpg', '味噌だれが絶妙なホルモン串の専門店', '17:00', '23:30', '日曜日', '500～1200円', 30, '460-8905', '愛知県名古屋市中川区八田町3-8-9', '052-567-0123');</v>
       </c>
-      <c r="Q37" s="21">
+      <c r="Q37">
         <v>43</v>
       </c>
-      <c r="R37" s="21">
+      <c r="R37">
         <v>44</v>
       </c>
-      <c r="S37" s="21">
+      <c r="S37">
         <v>45</v>
       </c>
-      <c r="T37" s="21" t="s">
+      <c r="T37" t="s">
         <v>397</v>
       </c>
-      <c r="U37" s="21" t="s">
+      <c r="U37" t="s">
         <v>398</v>
       </c>
-      <c r="V37" s="21" t="s">
+      <c r="V37" t="s">
         <v>368</v>
       </c>
-      <c r="W37" s="21">
+      <c r="W37">
         <f>VLOOKUP(T37,カテゴリ!$B:$C,2,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="X37" s="21">
+      <c r="X37">
         <f>VLOOKUP(U37,カテゴリ!$B:$C,2,FALSE)</f>
         <v>36</v>
       </c>
-      <c r="Y37" s="21">
+      <c r="Y37">
         <f>VLOOKUP(V37,カテゴリ!$B:$C,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AA37" s="21" t="str">
+      <c r="AA37" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (43, 15, 35);</v>
       </c>
-      <c r="AB37" s="21" t="str">
+      <c r="AB37" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (44, 15, 36);</v>
       </c>
-      <c r="AC37" s="21" t="str">
+      <c r="AC37" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (45, 15, 5);</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="21" customFormat="1">
-      <c r="A38" s="21">
+    <row r="38" spans="1:29">
+      <c r="A38">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B38" s="21" t="str">
+      <c r="B38" t="str">
         <f t="shared" ref="B38:D38" si="65">TEXT(B17,"'@'")</f>
         <v>'甘辛焼きそば堂'</v>
       </c>
-      <c r="C38" s="21" t="str">
+      <c r="C38" t="str">
         <f t="shared" si="65"/>
         <v>'store16.jpg'</v>
       </c>
-      <c r="D38" s="21" t="str">
+      <c r="D38" t="str">
         <f t="shared" si="65"/>
         <v>'甘辛いタレがクセになる焼きそばが看板メニュー'</v>
       </c>
-      <c r="E38" s="21" t="str">
+      <c r="E38" t="str">
         <f t="shared" ref="E38:F38" si="66">TEXT(E17,"'H:MM'")</f>
         <v>'11:30'</v>
       </c>
-      <c r="F38" s="21" t="str">
+      <c r="F38" t="str">
         <f t="shared" si="66"/>
         <v>'21:00'</v>
       </c>
-      <c r="G38" s="21" t="str">
-        <f t="shared" ref="G38:L38" si="67">TEXT(G17,"'@'")</f>
+      <c r="G38" t="str">
+        <f t="shared" ref="G38:H38" si="67">TEXT(G17,"'@'")</f>
         <v>'水曜日'</v>
       </c>
-      <c r="H38" s="21" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="67"/>
         <v>'700～1300円'</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="J38" s="21" t="str">
+      <c r="J38" t="str">
         <f t="shared" ref="J38:L38" si="68">TEXT(J17,"'@'")</f>
         <v>'460-9006'</v>
       </c>
-      <c r="K38" s="21" t="str">
+      <c r="K38" t="str">
         <f t="shared" si="68"/>
         <v>'愛知県名古屋市守山区森田町1-7-2'</v>
       </c>
-      <c r="L38" s="21" t="str">
+      <c r="L38" t="str">
         <f t="shared" si="68"/>
         <v>'052-678-1234'</v>
       </c>
-      <c r="O38" s="21" t="str">
+      <c r="O38" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (16, '甘辛焼きそば堂', 'store16.jpg', '甘辛いタレがクセになる焼きそばが看板メニュー', '11:30', '21:00', '水曜日', '700～1300円', 35, '460-9006', '愛知県名古屋市守山区森田町1-7-2', '052-678-1234');</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38">
         <v>46</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R38">
         <v>47</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S38">
         <v>48</v>
       </c>
-      <c r="T38" s="21" t="s">
+      <c r="T38" t="s">
         <v>399</v>
       </c>
-      <c r="U38" s="21" t="s">
+      <c r="U38" t="s">
         <v>381</v>
       </c>
-      <c r="V38" s="21" t="s">
+      <c r="V38" t="s">
         <v>400</v>
       </c>
-      <c r="W38" s="21">
+      <c r="W38">
         <f>VLOOKUP(T38,カテゴリ!$B:$C,2,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="X38" s="21">
+      <c r="X38">
         <f>VLOOKUP(U38,カテゴリ!$B:$C,2,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="Y38" s="21">
+      <c r="Y38">
         <f>VLOOKUP(V38,カテゴリ!$B:$C,2,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="AA38" s="21" t="str">
+      <c r="AA38" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (46, 16, 37);</v>
       </c>
-      <c r="AB38" s="21" t="str">
+      <c r="AB38" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (47, 16, 19);</v>
       </c>
-      <c r="AC38" s="21" t="str">
+      <c r="AC38" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (48, 16, 38);</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="21" customFormat="1">
-      <c r="A39" s="21">
+    <row r="39" spans="1:29">
+      <c r="A39">
         <f>A18</f>
         <v>17</v>
       </c>
-      <c r="B39" s="21" t="str">
+      <c r="B39" t="str">
         <f>TEXT(B18,"'@'")</f>
         <v>'ナゴヤソウルフード'</v>
       </c>
-      <c r="C39" s="21" t="str">
-        <f t="shared" ref="C39:H39" si="69">TEXT(C18,"'@'")</f>
+      <c r="C39" t="str">
+        <f t="shared" ref="C39:D39" si="69">TEXT(C18,"'@'")</f>
         <v>'store17.jpg'</v>
       </c>
-      <c r="D39" s="21" t="str">
+      <c r="D39" t="str">
         <f t="shared" si="69"/>
         <v>'地元で愛されるB級グルメが集まる複合施設'</v>
       </c>
-      <c r="E39" s="21" t="str">
+      <c r="E39" t="str">
         <f>TEXT(E18,"'H:MM'")</f>
         <v>'10:00'</v>
       </c>
-      <c r="F39" s="21" t="str">
+      <c r="F39" t="str">
         <f>TEXT(F18,"'H:MM'")</f>
         <v>'22:00'</v>
       </c>
-      <c r="G39" s="21" t="str">
-        <f t="shared" ref="G39:L39" si="70">TEXT(G18,"'@'")</f>
+      <c r="G39" t="str">
+        <f t="shared" ref="G39" si="70">TEXT(G18,"'@'")</f>
         <v>'なし'</v>
       </c>
-      <c r="H39" s="21" t="str">
+      <c r="H39" t="str">
         <f>TEXT(H18,"'@'")</f>
         <v>'500～2000円'</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39">
         <f>I18</f>
         <v>100</v>
       </c>
-      <c r="J39" s="21" t="str">
+      <c r="J39" t="str">
         <f>TEXT(J18,"'@'")</f>
         <v>'460-9107'</v>
       </c>
-      <c r="K39" s="21" t="str">
+      <c r="K39" t="str">
         <f t="shared" ref="K39:L39" si="71">TEXT(K18,"'@'")</f>
         <v>'愛知県名古屋市名東区引山町2-9-8'</v>
       </c>
-      <c r="L39" s="21" t="str">
+      <c r="L39" t="str">
         <f t="shared" si="71"/>
         <v>'052-789-2345'</v>
       </c>
-      <c r="O39" s="21" t="str">
+      <c r="O39" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (17, 'ナゴヤソウルフード', 'store17.jpg', '地元で愛されるB級グルメが集まる複合施設', '10:00', '22:00', 'なし', '500～2000円', 100, '460-9107', '愛知県名古屋市名東区引山町2-9-8', '052-789-2345');</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="Q39">
         <v>49</v>
       </c>
-      <c r="R39" s="21">
+      <c r="R39">
         <v>50</v>
       </c>
-      <c r="S39" s="21">
+      <c r="S39">
         <v>51</v>
       </c>
-      <c r="T39" s="21" t="s">
+      <c r="T39" t="s">
         <v>401</v>
       </c>
-      <c r="U39" s="21" t="s">
+      <c r="U39" t="s">
         <v>402</v>
       </c>
-      <c r="V39" s="21" t="s">
+      <c r="V39" t="s">
         <v>369</v>
       </c>
-      <c r="W39" s="21">
+      <c r="W39">
         <f>VLOOKUP(T39,カテゴリ!$B:$C,2,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="X39" s="21">
+      <c r="X39">
         <f>VLOOKUP(U39,カテゴリ!$B:$C,2,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="Y39" s="21">
+      <c r="Y39">
         <f>VLOOKUP(V39,カテゴリ!$B:$C,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="AA39" s="21" t="str">
+      <c r="AA39" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (49, 17, 39);</v>
       </c>
-      <c r="AB39" s="21" t="str">
+      <c r="AB39" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (50, 17, 40);</v>
       </c>
-      <c r="AC39" s="21" t="str">
+      <c r="AC39" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (51, 17, 6);</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="21" customFormat="1">
-      <c r="A40" s="21">
+    <row r="40" spans="1:29">
+      <c r="A40">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B40" s="21" t="str">
+      <c r="B40" t="str">
         <f t="shared" ref="B40:D40" si="72">TEXT(B19,"'@'")</f>
         <v>'えびせんの里屋台'</v>
       </c>
-      <c r="C40" s="21" t="str">
+      <c r="C40" t="str">
         <f t="shared" si="72"/>
         <v>'store18.jpg'</v>
       </c>
-      <c r="D40" s="21" t="str">
+      <c r="D40" t="str">
         <f t="shared" si="72"/>
         <v>'名古屋名物えびせんべいを揚げたてで提供'</v>
       </c>
-      <c r="E40" s="21" t="str">
+      <c r="E40" t="str">
         <f t="shared" ref="E40:F40" si="73">TEXT(E19,"'H:MM'")</f>
         <v>'10:00'</v>
       </c>
-      <c r="F40" s="21" t="str">
+      <c r="F40" t="str">
         <f t="shared" si="73"/>
         <v>'18:00'</v>
       </c>
-      <c r="G40" s="21" t="str">
-        <f t="shared" ref="G40:L40" si="74">TEXT(G19,"'@'")</f>
+      <c r="G40" t="str">
+        <f t="shared" ref="G40:H40" si="74">TEXT(G19,"'@'")</f>
         <v>'木曜日'</v>
       </c>
-      <c r="H40" s="21" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="74"/>
         <v>'300～800円'</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="J40" s="21" t="str">
+      <c r="J40" t="str">
         <f t="shared" ref="J40:L40" si="75">TEXT(J19,"'@'")</f>
         <v>'460-9208'</v>
       </c>
-      <c r="K40" s="21" t="str">
+      <c r="K40" t="str">
         <f t="shared" si="75"/>
         <v>'愛知県名古屋市天白区植田町5-4-7'</v>
       </c>
-      <c r="L40" s="21" t="str">
+      <c r="L40" t="str">
         <f t="shared" si="75"/>
         <v>'052-890-3456'</v>
       </c>
-      <c r="O40" s="21" t="str">
+      <c r="O40" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (18, 'えびせんの里屋台', 'store18.jpg', '名古屋名物えびせんべいを揚げたてで提供', '10:00', '18:00', '木曜日', '300～800円', 15, '460-9208', '愛知県名古屋市天白区植田町5-4-7', '052-890-3456');</v>
       </c>
-      <c r="Q40" s="21">
+      <c r="Q40">
         <v>52</v>
       </c>
-      <c r="R40" s="21">
+      <c r="R40">
         <v>53</v>
       </c>
-      <c r="S40" s="21">
+      <c r="S40">
         <v>54</v>
       </c>
-      <c r="T40" s="21" t="s">
+      <c r="T40" t="s">
         <v>403</v>
       </c>
-      <c r="U40" s="21" t="s">
+      <c r="U40" t="s">
         <v>381</v>
       </c>
-      <c r="V40" s="21" t="s">
+      <c r="V40" t="s">
         <v>391</v>
       </c>
-      <c r="W40" s="21">
+      <c r="W40">
         <f>VLOOKUP(T40,カテゴリ!$B:$C,2,FALSE)</f>
         <v>41</v>
       </c>
-      <c r="X40" s="21">
+      <c r="X40">
         <f>VLOOKUP(U40,カテゴリ!$B:$C,2,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="Y40" s="21">
+      <c r="Y40">
         <f>VLOOKUP(V40,カテゴリ!$B:$C,2,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="AA40" s="21" t="str">
+      <c r="AA40" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (52, 18, 41);</v>
       </c>
-      <c r="AB40" s="21" t="str">
+      <c r="AB40" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (53, 18, 19);</v>
       </c>
-      <c r="AC40" s="21" t="str">
+      <c r="AC40" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (54, 18, 29);</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="21" customFormat="1">
-      <c r="A41" s="21">
+    <row r="41" spans="1:29">
+      <c r="A41">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B41" s="21" t="str">
+      <c r="B41" t="str">
         <f t="shared" ref="B41:D41" si="76">TEXT(B20,"'@'")</f>
         <v>'ジャンボ串かつ天国'</v>
       </c>
-      <c r="C41" s="21" t="str">
+      <c r="C41" t="str">
         <f t="shared" si="76"/>
         <v>'store19.jpg'</v>
       </c>
-      <c r="D41" s="21" t="str">
+      <c r="D41" t="str">
         <f t="shared" si="76"/>
         <v>'大ぶりでボリューム満点の串かつが自慢'</v>
       </c>
-      <c r="E41" s="21" t="str">
+      <c r="E41" t="str">
         <f t="shared" ref="E41:F41" si="77">TEXT(E20,"'H:MM'")</f>
         <v>'16:00'</v>
       </c>
-      <c r="F41" s="21" t="str">
+      <c r="F41" t="str">
         <f t="shared" si="77"/>
         <v>'23:00'</v>
       </c>
-      <c r="G41" s="21" t="str">
-        <f t="shared" ref="G41:L41" si="78">TEXT(G20,"'@'")</f>
+      <c r="G41" t="str">
+        <f t="shared" ref="G41:H41" si="78">TEXT(G20,"'@'")</f>
         <v>'火曜日'</v>
       </c>
-      <c r="H41" s="21" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="78"/>
         <v>'500～1500円'</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="J41" s="21" t="str">
+      <c r="J41" t="str">
         <f t="shared" ref="J41:L41" si="79">TEXT(J20,"'@'")</f>
         <v>'460-9309'</v>
       </c>
-      <c r="K41" s="21" t="str">
+      <c r="K41" t="str">
         <f t="shared" si="79"/>
         <v>'愛知県名古屋市中村区太閤通6-7-8'</v>
       </c>
-      <c r="L41" s="21" t="str">
+      <c r="L41" t="str">
         <f t="shared" si="79"/>
         <v>'052-901-4567'</v>
       </c>
-      <c r="O41" s="21" t="str">
+      <c r="O41" t="str">
         <f t="shared" si="0"/>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (19, 'ジャンボ串かつ天国', 'store19.jpg', '大ぶりでボリューム満点の串かつが自慢', '16:00', '23:00', '火曜日', '500～1500円', 45, '460-9309', '愛知県名古屋市中村区太閤通6-7-8', '052-901-4567');</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="Q41">
         <v>55</v>
       </c>
-      <c r="R41" s="21">
+      <c r="R41">
         <v>56</v>
       </c>
-      <c r="S41" s="21">
+      <c r="S41">
         <v>57</v>
       </c>
-      <c r="T41" s="21" t="s">
+      <c r="T41" t="s">
         <v>404</v>
       </c>
-      <c r="U41" s="21" t="s">
+      <c r="U41" t="s">
         <v>405</v>
       </c>
-      <c r="V41" s="21" t="s">
+      <c r="V41" t="s">
         <v>368</v>
       </c>
-      <c r="W41" s="21">
+      <c r="W41">
         <f>VLOOKUP(T41,カテゴリ!$B:$C,2,FALSE)</f>
         <v>44</v>
       </c>
-      <c r="X41" s="21">
+      <c r="X41">
         <f>VLOOKUP(U41,カテゴリ!$B:$C,2,FALSE)</f>
         <v>42</v>
       </c>
-      <c r="Y41" s="21">
+      <c r="Y41">
         <f>VLOOKUP(V41,カテゴリ!$B:$C,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AA41" s="21" t="str">
+      <c r="AA41" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (55, 19, 44);</v>
       </c>
-      <c r="AB41" s="21" t="str">
+      <c r="AB41" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (56, 19, 42);</v>
       </c>
-      <c r="AC41" s="21" t="str">
+      <c r="AC41" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (57, 19, 5);</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="21" customFormat="1">
-      <c r="A42" s="21">
+    <row r="42" spans="1:29">
+      <c r="A42">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B42" s="21" t="str">
+      <c r="B42" t="str">
         <f t="shared" ref="B42:D42" si="80">TEXT(B21,"'@'")</f>
         <v>'鶏ちゃん横町'</v>
       </c>
-      <c r="C42" s="21" t="str">
+      <c r="C42" t="str">
         <f t="shared" si="80"/>
         <v>'store20.jpg'</v>
       </c>
-      <c r="D42" s="21" t="str">
+      <c r="D42" t="str">
         <f t="shared" si="80"/>
         <v>'香ばしく焼き上げた鶏ちゃんを提供する隠れ家的店'</v>
       </c>
-      <c r="E42" s="21" t="str">
+      <c r="E42" t="str">
         <f t="shared" ref="E42:F42" si="81">TEXT(E21,"'H:MM'")</f>
         <v>'17:00'</v>
       </c>
-      <c r="F42" s="21" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="81"/>
         <v>'23:30'</v>
       </c>
-      <c r="G42" s="21" t="str">
-        <f t="shared" ref="G42:L42" si="82">TEXT(G21,"'@'")</f>
+      <c r="G42" t="str">
+        <f t="shared" ref="G42:H42" si="82">TEXT(G21,"'@'")</f>
         <v>'水曜日'</v>
       </c>
-      <c r="H42" s="21" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="82"/>
         <v>'800～2000円'</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="J42" s="21" t="str">
+      <c r="J42" t="str">
         <f t="shared" ref="J42:L42" si="83">TEXT(J21,"'@'")</f>
         <v>'460-9400'</v>
       </c>
-      <c r="K42" s="21" t="str">
+      <c r="K42" t="str">
         <f t="shared" si="83"/>
         <v>'愛知県名古屋市東区泉町3-2-1'</v>
       </c>
-      <c r="L42" s="21" t="str">
+      <c r="L42" t="str">
         <f t="shared" si="83"/>
         <v>'052-012-5678'</v>
       </c>
-      <c r="O42" s="21" t="str">
+      <c r="O42" t="str">
         <f>"INSERT IGNORE INTO stores ("&amp;_xlfn.TEXTJOIN(", ",FALSE,$A$1:$L$1)&amp;") VALUES ("&amp;_xlfn.TEXTJOIN(", ",FALSE,A42:L42)&amp;");"</f>
         <v>INSERT IGNORE INTO stores (id, name, image_name, description, open_hour, closed_hour, holiday, price, capacity, postal_code, address, phone_number) VALUES (20, '鶏ちゃん横町', 'store20.jpg', '香ばしく焼き上げた鶏ちゃんを提供する隠れ家的店', '17:00', '23:30', '水曜日', '800～2000円', 25, '460-9400', '愛知県名古屋市東区泉町3-2-1', '052-012-5678');</v>
       </c>
-      <c r="Q42" s="21">
+      <c r="Q42">
         <v>58</v>
       </c>
-      <c r="R42" s="21">
+      <c r="R42">
         <v>59</v>
       </c>
-      <c r="S42" s="21">
+      <c r="S42">
         <v>60</v>
       </c>
-      <c r="T42" s="21" t="s">
+      <c r="T42" t="s">
         <v>406</v>
       </c>
-      <c r="U42" s="21" t="s">
+      <c r="U42" t="s">
         <v>369</v>
       </c>
-      <c r="V42" s="21" t="s">
+      <c r="V42" t="s">
         <v>368</v>
       </c>
-      <c r="W42" s="21">
+      <c r="W42">
         <f>VLOOKUP(T42,カテゴリ!$B:$C,2,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="X42" s="21">
+      <c r="X42">
         <f>VLOOKUP(U42,カテゴリ!$B:$C,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="Y42" s="21">
+      <c r="Y42">
         <f>VLOOKUP(V42,カテゴリ!$B:$C,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AA42" s="21" t="str">
+      <c r="AA42" t="str">
         <f t="shared" si="10"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (58, 20, 43);</v>
       </c>
-      <c r="AB42" s="21" t="str">
+      <c r="AB42" t="str">
         <f t="shared" si="11"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (59, 20, 6);</v>
       </c>
-      <c r="AC42" s="21" t="str">
+      <c r="AC42" t="str">
         <f t="shared" si="12"/>
         <v>INSERT IGNORE INTO store_category (id, store_id, category_id) VALUES (60, 20, 5);</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="21" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12977,9 +12959,9 @@
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="75.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.75" customWidth="1"/>
@@ -12998,13 +12980,13 @@
       <c r="D1" t="s">
         <v>432</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
@@ -13030,17 +13012,17 @@
       <c r="C2" t="s">
         <v>434</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="18">
         <v>45606.599826388891</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="19">
         <v>1</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="19">
         <f>VLOOKUP(A2,店情報!B:M,12,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="19">
         <v>3</v>
       </c>
       <c r="H2">
@@ -13073,17 +13055,17 @@
       <c r="C3" t="s">
         <v>436</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="18">
         <v>45608.47934027778</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="19">
         <v>2</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="19">
         <f>VLOOKUP(A3,店情報!B:M,12,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="19">
         <v>4</v>
       </c>
       <c r="H3">
@@ -13116,17 +13098,17 @@
       <c r="C4" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="18">
         <v>45611.781365740739</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="19">
         <v>3</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="19">
         <f>VLOOKUP(A4,店情報!B:M,12,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="19">
         <v>5</v>
       </c>
       <c r="H4">
@@ -13159,17 +13141,17 @@
       <c r="C5" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="18">
         <v>45612.500405092593</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="19">
         <v>4</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="19">
         <f>VLOOKUP(A5,店情報!B:M,12,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="19">
         <v>6</v>
       </c>
       <c r="H5">
@@ -13202,17 +13184,17 @@
       <c r="C6" t="s">
         <v>442</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="18">
         <v>45613.800578703704</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="19">
         <v>5</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="19">
         <f>VLOOKUP(A6,店情報!B:M,12,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="19">
         <v>7</v>
       </c>
       <c r="H6">
@@ -13245,17 +13227,17 @@
       <c r="C7" t="s">
         <v>444</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="18">
         <v>45604.84033564815</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="19">
         <v>6</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="19">
         <f>VLOOKUP(A7,店情報!B:M,12,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="19">
         <v>3</v>
       </c>
       <c r="H7">
@@ -13288,17 +13270,17 @@
       <c r="C8" t="s">
         <v>446</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="18">
         <v>45605.750347222223</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="19">
         <v>7</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="19">
         <f>VLOOKUP(A8,店情報!B:M,12,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="19">
         <v>4</v>
       </c>
       <c r="H8">
@@ -13331,17 +13313,17 @@
       <c r="C9" t="s">
         <v>448</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="18">
         <v>45610.823148148149</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="19">
         <v>8</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="19">
         <f>VLOOKUP(A9,店情報!B:M,12,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="19">
         <v>5</v>
       </c>
       <c r="H9">
@@ -13374,17 +13356,17 @@
       <c r="C10" t="s">
         <v>450</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="18">
         <v>45611.896469907406</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="19">
         <v>9</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="19">
         <f>VLOOKUP(A10,店情報!B:M,12,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="19">
         <v>6</v>
       </c>
       <c r="H10">
@@ -13417,17 +13399,17 @@
       <c r="C11" t="s">
         <v>452</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="18">
         <v>45612.843865740739</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="19">
         <v>10</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="19">
         <f>VLOOKUP(A11,店情報!B:M,12,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="19">
         <v>7</v>
       </c>
       <c r="H11">
@@ -13460,17 +13442,17 @@
       <c r="C12" t="s">
         <v>454</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="18">
         <v>45607.572916666664</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="19">
         <v>11</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="19">
         <f>VLOOKUP(A12,店情報!B:M,12,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="19">
         <v>3</v>
       </c>
       <c r="H12">
@@ -13503,17 +13485,17 @@
       <c r="C13" t="s">
         <v>456</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="18">
         <v>45606.510821759257</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="19">
         <v>12</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="19">
         <f>VLOOKUP(A13,店情報!B:M,12,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="19">
         <v>4</v>
       </c>
       <c r="H13">
@@ -13546,17 +13528,17 @@
       <c r="C14" t="s">
         <v>458</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="18">
         <v>45610.646412037036</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="19">
         <v>13</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="19">
         <f>VLOOKUP(A14,店情報!B:M,12,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="19">
         <v>5</v>
       </c>
       <c r="H14">
@@ -13589,17 +13571,17 @@
       <c r="C15" t="s">
         <v>460</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="18">
         <v>45611.531539351854</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="19">
         <v>14</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="19">
         <f>VLOOKUP(A15,店情報!B:M,12,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="19">
         <v>6</v>
       </c>
       <c r="H15">
@@ -13632,17 +13614,17 @@
       <c r="C16" t="s">
         <v>462</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="18">
         <v>45612.594212962962</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="19">
         <v>15</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="19">
         <f>VLOOKUP(A16,店情報!B:M,12,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="19">
         <v>7</v>
       </c>
       <c r="H16">
@@ -13675,17 +13657,17 @@
       <c r="C17" t="s">
         <v>464</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="18">
         <v>45603.534953703704</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="19">
         <v>16</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="19">
         <f>VLOOKUP(A17,店情報!B:M,12,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="19">
         <v>3</v>
       </c>
       <c r="H17">
@@ -13718,17 +13700,17 @@
       <c r="C18" t="s">
         <v>466</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="18">
         <v>45604.78125</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="19">
         <v>17</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="19">
         <f>VLOOKUP(A18,店情報!B:M,12,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="19">
         <v>4</v>
       </c>
       <c r="H18">
@@ -13761,17 +13743,17 @@
       <c r="C19" t="s">
         <v>468</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="18">
         <v>45610.549131944441</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="19">
         <v>18</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="19">
         <f>VLOOKUP(A19,店情報!B:M,12,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="19">
         <v>5</v>
       </c>
       <c r="H19">
@@ -13804,17 +13786,17 @@
       <c r="C20" t="s">
         <v>470</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="18">
         <v>45611.503819444442</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="19">
         <v>19</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="19">
         <f>VLOOKUP(A20,店情報!B:M,12,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="19">
         <v>6</v>
       </c>
       <c r="H20">
@@ -13847,17 +13829,17 @@
       <c r="C21" t="s">
         <v>472</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="18">
         <v>45612.618287037039</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="19">
         <v>20</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="19">
         <f>VLOOKUP(A21,店情報!B:M,12,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="19">
         <v>7</v>
       </c>
       <c r="H21">
@@ -13890,17 +13872,17 @@
       <c r="C22" t="s">
         <v>474</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="18">
         <v>45606.805671296293</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="19">
         <v>21</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="19">
         <f>VLOOKUP(A22,店情報!B:M,12,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="19">
         <v>3</v>
       </c>
       <c r="H22">
@@ -13933,17 +13915,17 @@
       <c r="C23" t="s">
         <v>476</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="18">
         <v>45607.771296296298</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="19">
         <v>22</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="19">
         <f>VLOOKUP(A23,店情報!B:M,12,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="19">
         <v>4</v>
       </c>
       <c r="H23">
@@ -13976,17 +13958,17 @@
       <c r="C24" t="s">
         <v>478</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="18">
         <v>45610.798611111109</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="19">
         <v>23</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="19">
         <f>VLOOKUP(A24,店情報!B:M,12,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="19">
         <v>5</v>
       </c>
       <c r="H24">
@@ -14019,17 +14001,17 @@
       <c r="C25" t="s">
         <v>480</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="18">
         <v>45611.788715277777</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="19">
         <v>24</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="19">
         <f>VLOOKUP(A25,店情報!B:M,12,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="19">
         <v>6</v>
       </c>
       <c r="H25">
@@ -14062,17 +14044,17 @@
       <c r="C26" t="s">
         <v>482</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="18">
         <v>45612.847511574073</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="19">
         <v>25</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="19">
         <f>VLOOKUP(A26,店情報!B:M,12,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="19">
         <v>7</v>
       </c>
       <c r="H26">
@@ -14105,17 +14087,17 @@
       <c r="C27" t="s">
         <v>484</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="18">
         <v>45605.885879629626</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="19">
         <v>26</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="19">
         <f>VLOOKUP(A27,店情報!B:M,12,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="19">
         <v>3</v>
       </c>
       <c r="H27">
@@ -14148,17 +14130,17 @@
       <c r="C28" t="s">
         <v>486</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="18">
         <v>45608.923784722225</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="19">
         <v>27</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="19">
         <f>VLOOKUP(A28,店情報!B:M,12,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="19">
         <v>4</v>
       </c>
       <c r="H28">
@@ -14191,17 +14173,17 @@
       <c r="C29" t="s">
         <v>488</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="18">
         <v>45610.989930555559</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="19">
         <v>28</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="19">
         <f>VLOOKUP(A29,店情報!B:M,12,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="19">
         <v>5</v>
       </c>
       <c r="H29">
@@ -14234,17 +14216,17 @@
       <c r="C30" t="s">
         <v>490</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="18">
         <v>45611.840509259258</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="19">
         <v>29</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="19">
         <f>VLOOKUP(A30,店情報!B:M,12,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="19">
         <v>6</v>
       </c>
       <c r="H30">
@@ -14277,17 +14259,17 @@
       <c r="C31" t="s">
         <v>492</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="18">
         <v>45612.896354166667</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="19">
         <v>30</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="19">
         <f>VLOOKUP(A31,店情報!B:M,12,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="19">
         <v>7</v>
       </c>
       <c r="H31">
@@ -14320,17 +14302,17 @@
       <c r="C32" t="s">
         <v>494</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="18">
         <v>45603.573263888888</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="19">
         <v>31</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="19">
         <f>VLOOKUP(A32,店情報!B:M,12,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="19">
         <v>3</v>
       </c>
       <c r="H32">
@@ -14363,17 +14345,17 @@
       <c r="C33" t="s">
         <v>496</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="18">
         <v>45604.520949074074</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="19">
         <v>32</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="19">
         <f>VLOOKUP(A33,店情報!B:M,12,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="19">
         <v>4</v>
       </c>
       <c r="H33">
@@ -14406,17 +14388,17 @@
       <c r="C34" t="s">
         <v>498</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="18">
         <v>45606.469212962962</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="19">
         <v>33</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="19">
         <f>VLOOKUP(A34,店情報!B:M,12,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="19">
         <v>3</v>
       </c>
       <c r="H34">
@@ -14449,17 +14431,17 @@
       <c r="C35" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="18">
         <v>45607.600925925923</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="19">
         <v>34</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="19">
         <f>VLOOKUP(A35,店情報!B:M,12,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="19">
         <v>4</v>
       </c>
       <c r="H35">
@@ -14492,17 +14474,17 @@
       <c r="C36" t="s">
         <v>502</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="18">
         <v>45605.823321759257</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="19">
         <v>35</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="19">
         <f>VLOOKUP(A36,店情報!B:M,12,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="19">
         <v>3</v>
       </c>
       <c r="H36">
@@ -14535,17 +14517,17 @@
       <c r="C37" t="s">
         <v>504</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="18">
         <v>45606.844270833331</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="19">
         <v>36</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="19">
         <f>VLOOKUP(A37,店情報!B:M,12,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="19">
         <v>4</v>
       </c>
       <c r="H37">
@@ -14578,17 +14560,17 @@
       <c r="C38" t="s">
         <v>506</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="18">
         <v>45604.597800925927</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="19">
         <v>37</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="19">
         <f>VLOOKUP(A38,店情報!B:M,12,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="19">
         <v>3</v>
       </c>
       <c r="H38">
@@ -14621,17 +14603,17 @@
       <c r="C39" t="s">
         <v>508</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="18">
         <v>45605.785069444442</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="19">
         <v>38</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="19">
         <f>VLOOKUP(A39,店情報!B:M,12,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="19">
         <v>4</v>
       </c>
       <c r="H39">
@@ -14664,17 +14646,17 @@
       <c r="C40" t="s">
         <v>510</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="18">
         <v>45606.646296296298</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="19">
         <v>39</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="19">
         <f>VLOOKUP(A40,店情報!B:M,12,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="19">
         <v>3</v>
       </c>
       <c r="H40">
@@ -14707,17 +14689,17 @@
       <c r="C41" t="s">
         <v>512</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="18">
         <v>45607.614814814813</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="19">
         <v>40</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="19">
         <f>VLOOKUP(A41,店情報!B:M,12,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="19">
         <v>4</v>
       </c>
       <c r="H41">
@@ -14750,17 +14732,17 @@
       <c r="C42" t="s">
         <v>514</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="18">
         <v>45605.510416666664</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="19">
         <v>41</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="19">
         <f>VLOOKUP(A42,店情報!B:M,12,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="19">
         <v>3</v>
       </c>
       <c r="H42">
@@ -14793,17 +14775,17 @@
       <c r="C43" t="s">
         <v>516</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="18">
         <v>45608.556076388886</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="19">
         <v>42</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="19">
         <f>VLOOKUP(A43,店情報!B:M,12,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="19">
         <v>4</v>
       </c>
       <c r="H43">
@@ -14836,17 +14818,17 @@
       <c r="C44" t="s">
         <v>518</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="18">
         <v>45606.479398148149</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="19">
         <v>43</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="19">
         <f>VLOOKUP(A44,店情報!B:M,12,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="19">
         <v>3</v>
       </c>
       <c r="H44">
@@ -14879,17 +14861,17 @@
       <c r="C45" t="s">
         <v>520</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="18">
         <v>45607.548958333333</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="19">
         <v>44</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="19">
         <f>VLOOKUP(A45,店情報!B:M,12,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="19">
         <v>4</v>
       </c>
       <c r="H45">
@@ -14922,17 +14904,17 @@
       <c r="C46" t="s">
         <v>522</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="18">
         <v>45604.451851851853</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="19">
         <v>45</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="19">
         <f>VLOOKUP(A46,店情報!B:M,12,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="19">
         <v>3</v>
       </c>
       <c r="H46">
@@ -14965,17 +14947,17 @@
       <c r="C47" t="s">
         <v>524</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="18">
         <v>45605.475810185184</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="19">
         <v>46</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="19">
         <f>VLOOKUP(A47,店情報!B:M,12,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="19">
         <v>4</v>
       </c>
       <c r="H47">
@@ -15008,17 +14990,17 @@
       <c r="C48" t="s">
         <v>526</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="18">
         <v>45606.844039351854</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="19">
         <v>47</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="19">
         <f>VLOOKUP(A48,店情報!B:M,12,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="19">
         <v>3</v>
       </c>
       <c r="H48">
@@ -15051,17 +15033,17 @@
       <c r="C49" t="s">
         <v>528</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="18">
         <v>45607.882407407407</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="19">
         <v>48</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="19">
         <f>VLOOKUP(A49,店情報!B:M,12,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="19">
         <v>4</v>
       </c>
       <c r="H49">
@@ -15094,17 +15076,17 @@
       <c r="C50" t="s">
         <v>530</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="18">
         <v>45605.531365740739</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="19">
         <v>49</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="19">
         <f>VLOOKUP(A50,店情報!B:M,12,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="19">
         <v>3</v>
       </c>
       <c r="H50">
@@ -15137,17 +15119,17 @@
       <c r="C51" t="s">
         <v>532</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="18">
         <v>45606.556134259263</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="19">
         <v>50</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="19">
         <f>VLOOKUP(A51,店情報!B:M,12,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="19">
         <v>4</v>
       </c>
       <c r="H51">
@@ -15180,17 +15162,17 @@
       <c r="C52" t="s">
         <v>534</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="18">
         <v>45604.47934027778</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="19">
         <v>51</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="19">
         <f>VLOOKUP(A52,店情報!B:M,12,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="19">
         <v>3</v>
       </c>
       <c r="H52">
@@ -15223,17 +15205,17 @@
       <c r="C53" t="s">
         <v>536</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="18">
         <v>45605.656481481485</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="19">
         <v>52</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="19">
         <f>VLOOKUP(A53,店情報!B:M,12,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="19">
         <v>4</v>
       </c>
       <c r="H53">
@@ -15266,17 +15248,17 @@
       <c r="C54" t="s">
         <v>538</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="18">
         <v>45606.590567129628</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="19">
         <v>53</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="19">
         <f>VLOOKUP(A54,店情報!B:M,12,FALSE)</f>
         <v>18</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="19">
         <v>3</v>
       </c>
       <c r="H54">
@@ -15309,17 +15291,17 @@
       <c r="C55" t="s">
         <v>540</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="18">
         <v>45607.534895833334</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="19">
         <v>54</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="19">
         <f>VLOOKUP(A55,店情報!B:M,12,FALSE)</f>
         <v>18</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="19">
         <v>4</v>
       </c>
       <c r="H55">
@@ -15352,17 +15334,17 @@
       <c r="C56" t="s">
         <v>542</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="18">
         <v>45605.819791666669</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="19">
         <v>55</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="19">
         <f>VLOOKUP(A56,店情報!B:M,12,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="19">
         <v>3</v>
       </c>
       <c r="H56">
@@ -15395,17 +15377,17 @@
       <c r="C57" t="s">
         <v>544</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="18">
         <v>45608.844212962962</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="19">
         <v>56</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="19">
         <f>VLOOKUP(A57,店情報!B:M,12,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="19">
         <v>4</v>
       </c>
       <c r="H57">
@@ -15438,17 +15420,17 @@
       <c r="C58" t="s">
         <v>546</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="18">
         <v>45606.764293981483</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="19">
         <v>57</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="19">
         <f>VLOOKUP(A58,店情報!B:M,12,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="19">
         <v>3</v>
       </c>
       <c r="H58">
@@ -15481,17 +15463,17 @@
       <c r="C59" t="s">
         <v>548</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="18">
         <v>45607.826620370368</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="19">
         <v>58</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="19">
         <f>VLOOKUP(A59,店情報!B:M,12,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="19">
         <v>4</v>
       </c>
       <c r="H59">
